--- a/Star Regein/Star Regein/SunLeo.xlsx
+++ b/Star Regein/Star Regein/SunLeo.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SunLeo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -84,7 +84,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="630">
+  <dxfs count="865">
     <dxf>
       <fill>
         <patternFill>
@@ -200,6 +200,92 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF000066"/>
@@ -314,6 +400,92 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF000066"/>
@@ -428,6 +600,92 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF000066"/>
@@ -570,6 +828,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -581,6 +867,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -590,6 +886,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
@@ -599,11 +905,25 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -621,6 +941,23 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -637,6 +974,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -658,6 +1009,371 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF000066"/>
         </patternFill>
       </fill>
@@ -2366,6 +3082,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2452,6 +3196,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2538,6 +3310,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2624,6 +3424,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2710,6 +3538,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2796,6 +3652,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2969,6 +3853,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3475,6 +4369,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -4775,6 +5745,82 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -4856,6 +5902,758 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5845,12 +7643,17 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BH18" sqref="BH18"/>
+      <selection activeCell="AI29" sqref="AI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="23" width="2.5" customWidth="1"/>
+    <col min="24" max="27" width="2.25" customWidth="1"/>
+    <col min="28" max="28" width="2.5" customWidth="1"/>
     <col min="29" max="29" width="2.625" customWidth="1"/>
+    <col min="30" max="30" width="2.5" customWidth="1"/>
+    <col min="41" max="41" width="2.5" customWidth="1"/>
     <col min="54" max="55" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6053,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
         <v>0</v>
@@ -6062,13 +7865,13 @@
         <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T2" s="1">
         <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" s="1">
         <v>0</v>
@@ -6080,13 +7883,13 @@
         <v>0</v>
       </c>
       <c r="Y2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="1">
         <v>0</v>
@@ -6101,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="AF2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="1">
         <v>0</v>
@@ -6190,22 +7993,22 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
         <v>0</v>
@@ -6217,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>0</v>
@@ -6235,22 +8038,22 @@
         <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="1">
         <v>0</v>
       </c>
       <c r="AB3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="1">
         <v>0</v>
       </c>
       <c r="AD3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="1">
         <v>0</v>
@@ -6342,22 +8145,22 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
@@ -6366,42 +8169,42 @@
         <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
         <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="1">
         <v>0</v>
       </c>
-      <c r="AC4" s="2">
-        <v>6</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2">
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1">
         <v>0</v>
       </c>
       <c r="AF4" s="1">
@@ -6509,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
@@ -6521,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -6539,21 +8342,21 @@
         <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
         <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1">
         <v>0</v>
       </c>
       <c r="AF5" s="1">
@@ -6640,28 +8443,28 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -6670,13 +8473,13 @@
         <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
@@ -6688,24 +8491,24 @@
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1">
         <v>0</v>
       </c>
-      <c r="AC6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2">
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1">
         <v>0</v>
       </c>
       <c r="AF6" s="1">
@@ -6806,56 +8609,56 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="2">
-        <v>6</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
         <v>1</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V7" s="1">
         <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
         <v>1</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z7" s="1">
         <v>1</v>
       </c>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="1">
         <v>0</v>
@@ -6958,13 +8761,13 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
         <v>0</v>
       </c>
       <c r="Q8" s="1">
@@ -6980,19 +8783,19 @@
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>0</v>
@@ -7083,13 +8886,13 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1">
@@ -7110,13 +8913,13 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
         <v>0</v>
       </c>
       <c r="Q9" s="1">
@@ -7138,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
         <v>0</v>
@@ -7165,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="1">
         <v>0</v>
@@ -7230,73 +9033,73 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2">
-        <v>6</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
+        <v>11</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z10" s="1">
         <v>0</v>
@@ -7379,79 +9182,79 @@
         <v>99</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
       </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0</v>
+      <c r="V11" s="1">
+        <v>11</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>10</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA11" s="1">
         <v>0</v>
@@ -7546,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -7576,13 +9379,13 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -7590,13 +9393,13 @@
       <c r="U12" s="1">
         <v>0</v>
       </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2">
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
         <v>0</v>
       </c>
       <c r="Y12" s="1">
@@ -7701,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -7731,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
@@ -7743,10 +9546,10 @@
         <v>0</v>
       </c>
       <c r="V13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="1">
         <v>0</v>
@@ -7850,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -7871,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
@@ -7880,19 +9683,19 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="1">
         <v>0</v>
@@ -7901,7 +9704,7 @@
         <v>1</v>
       </c>
       <c r="X14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -8002,13 +9805,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -8035,7 +9838,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
@@ -8047,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="1">
         <v>1</v>
@@ -8056,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>0</v>
@@ -8151,19 +9954,19 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>6</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -8172,31 +9975,31 @@
         <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P16" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
@@ -8205,7 +10008,7 @@
         <v>1</v>
       </c>
       <c r="X16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
@@ -8300,25 +10103,25 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
@@ -8339,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
@@ -8351,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1">
         <v>0</v>
@@ -8455,19 +10258,19 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>11</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>11</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -8488,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -8610,16 +10413,16 @@
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -8637,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="1">
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1">
         <v>0</v>
@@ -8765,10 +10568,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -8792,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -8923,13 +10726,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -9072,34 +10875,34 @@
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N22" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="1">
         <v>0</v>
       </c>
       <c r="R22" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
@@ -9230,31 +11033,31 @@
         <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L23" s="1">
         <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
       </c>
       <c r="O23" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P23" s="1">
         <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T23" s="1">
         <v>1</v>
@@ -9361,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -9510,13 +11313,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -9665,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -9829,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -9978,13 +11781,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -10065,7 +11868,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="1">
         <v>0</v>
@@ -10133,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
@@ -10214,13 +12017,13 @@
         <v>0</v>
       </c>
       <c r="AI29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -10363,19 +12166,19 @@
         <v>0</v>
       </c>
       <c r="AH30" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI30" s="2">
-        <v>6</v>
-      </c>
-      <c r="AJ30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="1">
         <v>0</v>
       </c>
       <c r="AL30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="1">
         <v>0</v>
@@ -10512,55 +12315,55 @@
         <v>0</v>
       </c>
       <c r="AG31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="1">
         <v>0</v>
       </c>
       <c r="AL31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="1">
         <v>0</v>
       </c>
       <c r="AO31" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP31" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ31" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR31" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS31" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT31" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU31" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV31" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW31" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX31">
         <v>99</v>
@@ -10571,31 +12374,31 @@
         <v>99</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -10667,19 +12470,19 @@
         <v>0</v>
       </c>
       <c r="AH32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="1">
         <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="1">
         <v>0</v>
@@ -10688,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="AO32" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP32" s="1">
         <v>0</v>
@@ -10712,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="AW32" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX32">
         <v>99</v>
@@ -10723,7 +12526,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -10747,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -10822,13 +12625,13 @@
         <v>0</v>
       </c>
       <c r="AI33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="1">
         <v>0</v>
@@ -10840,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="AO33" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP33" s="1">
         <v>0</v>
@@ -10864,7 +12667,7 @@
         <v>0</v>
       </c>
       <c r="AW33" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX33">
         <v>99</v>
@@ -10875,7 +12678,7 @@
         <v>99</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -10899,7 +12702,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -10977,7 +12780,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="1">
         <v>0</v>
@@ -10992,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="AO34" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP34" s="1">
         <v>0</v>
@@ -11016,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="AW34" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX34">
         <v>99</v>
@@ -11027,7 +12830,7 @@
         <v>99</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -11035,13 +12838,13 @@
       <c r="D35" s="1">
         <v>0</v>
       </c>
-      <c r="E35" s="2">
-        <v>6</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35" s="1">
@@ -11051,7 +12854,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -11144,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="AO35" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP35" s="1">
         <v>0</v>
@@ -11156,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -11168,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="AW35" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX35">
         <v>99</v>
@@ -11179,7 +12982,7 @@
         <v>99</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -11187,13 +12990,13 @@
       <c r="D36" s="1">
         <v>0</v>
       </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1">
         <v>0</v>
       </c>
       <c r="H36" s="1">
@@ -11203,7 +13006,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -11296,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="AO36" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP36" s="1">
         <v>0</v>
@@ -11305,13 +13108,13 @@
         <v>0</v>
       </c>
       <c r="AR36" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS36" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT36" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AU36" s="1">
         <v>0</v>
@@ -11320,7 +13123,7 @@
         <v>0</v>
       </c>
       <c r="AW36" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX36">
         <v>99</v>
@@ -11331,7 +13134,7 @@
         <v>99</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -11339,14 +13142,14 @@
       <c r="D37" s="1">
         <v>0</v>
       </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
+      <c r="E37" s="1">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -11355,7 +13158,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
@@ -11448,31 +13251,31 @@
         <v>0</v>
       </c>
       <c r="AO37" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="1">
         <v>0</v>
       </c>
       <c r="AR37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="1">
         <v>0</v>
       </c>
       <c r="AV37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW37" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX37">
         <v>99</v>
@@ -11483,7 +13286,7 @@
         <v>99</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -11495,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -11507,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
@@ -11600,31 +13403,31 @@
         <v>0</v>
       </c>
       <c r="AO38" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AP38" s="1">
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR38" s="1">
         <v>0</v>
       </c>
       <c r="AS38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
       </c>
       <c r="AU38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV38" s="1">
         <v>0</v>
       </c>
       <c r="AW38" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AX38">
         <v>99</v>
@@ -11635,40 +13438,40 @@
         <v>99</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
       <c r="G39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1">
         <v>0</v>
       </c>
       <c r="M39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="1">
         <v>0</v>
@@ -11752,31 +13555,31 @@
         <v>0</v>
       </c>
       <c r="AO39" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="1">
         <v>0</v>
       </c>
       <c r="AR39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="1">
         <v>0</v>
       </c>
       <c r="AT39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU39" s="1">
         <v>0</v>
       </c>
       <c r="AV39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW39" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX39">
         <v>99</v>
@@ -11787,37 +13590,37 @@
         <v>99</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K40" s="1">
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -11826,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P40" s="1">
         <v>0</v>
@@ -11904,31 +13707,31 @@
         <v>0</v>
       </c>
       <c r="AO40" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AP40" s="1">
         <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR40" s="1">
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="1">
         <v>0</v>
       </c>
       <c r="AU40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV40" s="1">
         <v>0</v>
       </c>
       <c r="AW40" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AX40">
         <v>99</v>
@@ -11939,49 +13742,49 @@
         <v>99</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1">
         <v>0</v>
       </c>
       <c r="M41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O41" s="1">
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q41" s="1">
         <v>0</v>
@@ -12056,31 +13859,31 @@
         <v>0</v>
       </c>
       <c r="AO41" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP41" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AQ41" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR41" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AS41" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT41" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AU41" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV41" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AW41" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX41">
         <v>99</v>
@@ -12091,37 +13894,37 @@
         <v>99</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H42" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -12130,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P42" s="1">
         <v>0</v>
@@ -12246,37 +14049,37 @@
         <v>0</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="1">
         <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1">
         <v>0</v>
       </c>
       <c r="M43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="1">
         <v>0</v>
@@ -12395,37 +14198,37 @@
         <v>99</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
       </c>
       <c r="L44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -12550,37 +14353,37 @@
         <v>0</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L45" s="1">
         <v>0</v>
       </c>
       <c r="M45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" s="1">
         <v>0</v>
@@ -12705,31 +14508,31 @@
         <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
       </c>
       <c r="L46" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -12741,7 +14544,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="1">
         <v>0</v>
@@ -12759,7 +14562,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" s="1">
         <v>0</v>
@@ -12860,31 +14663,31 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
       </c>
       <c r="K47" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L47" s="1">
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="1">
         <v>0</v>
@@ -12908,13 +14711,13 @@
         <v>0</v>
       </c>
       <c r="U47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" s="1">
         <v>0</v>
       </c>
       <c r="W47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47" s="1">
         <v>0</v>
@@ -13009,31 +14812,31 @@
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
         <v>0</v>
       </c>
       <c r="L48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13069,7 +14872,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="1">
         <v>0</v>
@@ -13170,25 +14973,25 @@
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="1">
         <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1">
         <v>0</v>
       </c>
       <c r="M49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" s="1">
         <v>0</v>
@@ -13221,7 +15024,7 @@
         <v>1</v>
       </c>
       <c r="X49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49" s="1">
         <v>1</v>
@@ -13456,2633 +15259,2173 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 A26:W26 A15:U15 AX47:AX49 A36:B38 A21:B23 AX19:AX24 AS17:AX18 AW14:AX16 AX26:AX42 AR45:AX46 A50:AB50 A30:H33 A27:C29 A13:AB14 A8:C10 A5:J7 A24:AB25 B40:N49 A1:AX3 B3:M8 Q7:AB7 Q8:X9 C5:AB6 AL5:AX7 A19:T20 AN18:AW20 A39:X39 U40:X41 A40:Q42 U42:AB42 C29:Q31 AR25:AX25 C21:AB26 AR25:AW27 B19:M34 J18:T18 A16:F18 J16:AB17 B13:AB15 B9:D10 H9:M10 A11:D11 H10:U11 X18:AB20 C38:AB38 AB39:AB41 C43:AB49 AI45:AW47 A35:D35 B38:M49 B35:D37 H37:AB37 U30:AB30 A34:T34 AL30:AW32 AD30:AH32 AD45:AE47 AD48:AW49 AD38:AK40 AD18:AJ20 AD8:AX13 AD12:AW17 AD25:AN27 AD28:AW29 AD33:AW37 AD43:AX44 AD41:AW44 AD21:AW24 AD7:AH7 AD50:AX50 AC7:AC50 AF5:AH6 A4:AB4 AF4:AX4 A12:U12 Y8:AB12 U29:W29 C27:W28 AA27:AB29 C32:V33 U31:V31 Z31:AB33 H35:T36 X34:AB36 AO38:AW40">
-    <cfRule type="cellIs" dxfId="629" priority="665" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS17:AX18 AW14:AX16 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AL5:AX7 AN18:AW20 U40:X41 U42:AB42 C29:Q31 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 AI45:AW47 K37:AB38 U30:AB30 AD45:AE47 AD48:AW49 AD38:AK40 AD18:AJ20 AD10:AX13 AD12:AW17 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 U29:W29 C27:W28 AA27:AB29 U31:V31 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 X8:AX9 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 AD41:AW44 B43:AB49 A14:L20 A1:AX1 A7:AH7 A2:P6 Q6:Y6 V2:AX2 Q2:U5 V3:Y5 AA3:AX4 AA5:AH6 Z3:Z6 AD28:AW37 AO38:AW40 K39:X39 K40:Q42 K38:M42 A32:A42 K32:V33 K34:T36">
+    <cfRule type="cellIs" dxfId="789" priority="702" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="666" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="703" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="787" priority="704" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 A26:W26 A15:U15 AX47:AX49 A36:B38 A21:B23 AX19:AX24 AS17:AX18 AW14:AX16 AX26:AX42 AR45:AX46 A50:AB50 A30:H33 A27:C29 A13:AB14 A8:C10 A5:J7 A24:AB25 B40:N49 A1:AX3 B3:M8 Q7:AB7 Q8:X9 C5:AB6 AL5:AX7 A19:T20 AN18:AW20 A39:X39 U40:X41 A40:Q42 U42:AB42 C29:Q31 AR25:AX25 C21:AB26 AR25:AW27 B19:M34 J18:T18 A16:F18 J16:AB17 B13:AB15 B9:D10 H9:M10 A11:D11 H10:U11 X18:AB20 C38:AB38 AB39:AB41 C43:AB49 AI45:AW47 A35:D35 B38:M49 B35:D37 H37:AB37 U30:AB30 A34:T34 AL30:AW32 AD30:AH32 AD45:AE47 AD48:AW49 AD38:AK40 AD18:AJ20 AD8:AX13 AD12:AW17 AD25:AN27 AD28:AW29 AD33:AW37 AD43:AX44 AD41:AW44 AD21:AW24 AD7:AH7 AD50:AX50 AC7:AC50 AF5:AH6 A4:AB4 AF4:AX4 A12:U12 Y8:AB12 U29:W29 C27:W28 AA27:AB29 C32:V33 U31:V31 Z31:AB33 H35:T36 X34:AB36 AO38:AW40">
-    <cfRule type="cellIs" dxfId="626" priority="663" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS17:AX18 AW14:AX16 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AL5:AX7 AN18:AW20 U40:X41 U42:AB42 C29:Q31 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 AI45:AW47 K37:AB38 U30:AB30 AD45:AE47 AD48:AW49 AD38:AK40 AD18:AJ20 AD10:AX13 AD12:AW17 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 U29:W29 C27:W28 AA27:AB29 U31:V31 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 X8:AX9 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 AD41:AW44 B43:AB49 A14:L20 A1:AX1 A7:AH7 A2:P6 Q6:Y6 V2:AX2 Q2:U5 V3:Y5 AA3:AX4 AA5:AH6 Z3:Z6 AD28:AW37 AO38:AW40 K39:X39 K40:Q42 K38:M42 A32:A42 K32:V33 K34:T36">
+    <cfRule type="cellIs" dxfId="786" priority="700" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="664" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="701" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 A26:W26 A15:U15 AX47:AX49 A36:B38 A21:B23 AX19:AX24 AS17:AX18 AW14:AX16 AX26:AX42 AR45:AX46 A50:AB50 A30:H33 A27:C29 A13:AB14 A8:C10 A5:J7 A24:AB25 B40:N49 A1:AX3 B3:M8 Q7:AB7 Q8:X9 C5:AB6 AL5:AX7 A19:T20 AN18:AW20 A39:X39 U40:X41 A40:Q42 U42:AB42 C29:Q31 AR25:AX25 C21:AB26 AR25:AW27 B19:M34 J18:T18 A16:F18 J16:AB17 B13:AB15 B9:D10 H9:M10 A11:D11 H10:U11 X18:AB20 C38:AB38 AB39:AB41 C43:AB49 AI45:AW47 A35:D35 B38:M49 B35:D37 H37:AB37 U30:AB30 A34:T34 AL30:AW32 AD30:AH32 AD45:AE47 AD48:AW49 AD38:AK40 AD18:AJ20 AD8:AX13 AD12:AW17 AD25:AN27 AD28:AW29 AD33:AW37 AD43:AX44 AD41:AW44 AD21:AW24 AD7:AH7 AD50:AX50 AC7:AC50 AF5:AH6 A4:AB4 AF4:AX4 A12:U12 Y8:AB12 U29:W29 C27:W28 AA27:AB29 C32:V33 U31:V31 Z31:AB33 H35:T36 X34:AB36 AO38:AW40">
-    <cfRule type="cellIs" dxfId="624" priority="661" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS17:AX18 AW14:AX16 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AL5:AX7 AN18:AW20 U40:X41 U42:AB42 C29:Q31 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 AI45:AW47 K37:AB38 U30:AB30 AD45:AE47 AD48:AW49 AD38:AK40 AD18:AJ20 AD10:AX13 AD12:AW17 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 U29:W29 C27:W28 AA27:AB29 U31:V31 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 X8:AX9 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 AD41:AW44 B43:AB49 A14:L20 A1:AX1 A7:AH7 A2:P6 Q6:Y6 V2:AX2 Q2:U5 V3:Y5 AA3:AX4 AA5:AH6 Z3:Z6 AD28:AW37 AO38:AW40 K39:X39 K40:Q42 K38:M42 A32:A42 K32:V33 K34:T36">
+    <cfRule type="cellIs" dxfId="784" priority="698" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="623" priority="662" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="699" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 A26:W26 A15:U15 AX47:AX49 A36:B38 A21:B23 AX19:AX24 AS17:AX18 AW14:AX16 AX26:AX42 AR45:AX46 A50:AB50 A30:H33 A27:C29 A13:AB14 A8:C10 A5:J7 A24:AB25 B40:N49 A1:AX3 B3:M8 Q7:AB7 Q8:X9 C5:AB6 AL5:AX7 A19:T20 AN18:AW20 A39:X39 U40:X41 A40:Q42 U42:AB42 C29:Q31 AR25:AX25 C21:AB26 AR25:AW27 B19:M34 J18:T18 A16:F18 J16:AB17 B13:AB15 B9:D10 H9:M10 A11:D11 H10:U11 X18:AB20 C38:AB38 AB39:AB41 C43:AB49 AI45:AW47 A35:D35 B38:M49 B35:D37 H37:AB37 U30:AB30 A34:T34 AL30:AW32 AD30:AH32 AD45:AE47 AD48:AW49 AD38:AK40 AD18:AJ20 AD8:AX13 AD12:AW17 AD25:AN27 AD28:AW29 AD33:AW37 AD43:AX44 AD41:AW44 AD21:AW24 AD7:AH7 AD50:AX50 AC7:AC50 AF5:AH6 A4:AB4 AF4:AX4 A12:U12 Y8:AB12 U29:W29 C27:W28 AA27:AB29 C32:V33 U31:V31 Z31:AB33 H35:T36 X34:AB36 AO38:AW40">
-    <cfRule type="cellIs" dxfId="622" priority="660" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS17:AX18 AW14:AX16 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AL5:AX7 AN18:AW20 U40:X41 U42:AB42 C29:Q31 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 AI45:AW47 K37:AB38 U30:AB30 AD45:AE47 AD48:AW49 AD38:AK40 AD18:AJ20 AD10:AX13 AD12:AW17 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 U29:W29 C27:W28 AA27:AB29 U31:V31 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 X8:AX9 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 AD41:AW44 B43:AB49 A14:L20 A1:AX1 A7:AH7 A2:P6 Q6:Y6 V2:AX2 Q2:U5 V3:Y5 AA3:AX4 AA5:AH6 Z3:Z6 AD28:AW37 AO38:AW40 K39:X39 K40:Q42 K38:M42 A32:A42 K32:V33 K34:T36">
+    <cfRule type="cellIs" dxfId="782" priority="697" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 A26:W26 A15:U15 AX47:AX49 A36:B38 A21:B23 AX19:AX24 AS17:AX18 AW14:AX16 AX26:AX42 AR45:AX46 A50:AB50 A30:H33 A27:C29 A13:AB14 A8:C10 A5:J7 A24:AB25 B40:N49 A1:AX3 B3:M8 Q7:AB7 Q8:X9 C5:AB6 AL5:AX7 A19:T20 AN18:AW20 A39:X39 U40:X41 A40:Q42 U42:AB42 C29:Q31 AR25:AX25 C21:AB26 AR25:AW27 B19:M34 J18:T18 A16:F18 J16:AB17 B13:AB15 B9:D10 H9:M10 A11:D11 H10:U11 X18:AB20 C38:AB38 AB39:AB41 C43:AB49 AI45:AW47 A35:D35 B38:M49 B35:D37 H37:AB37 U30:AB30 A34:T34 AL30:AW32 AD30:AH32 AD45:AE47 AD48:AW49 AD38:AK40 AD18:AJ20 AD8:AX13 AD12:AW17 AD25:AN27 AD28:AW29 AD33:AW37 AD43:AX44 AD41:AW44 AD21:AW24 AD7:AH7 AD50:AX50 AC7:AC50 AF5:AH6 A4:AB4 AF4:AX4 A12:U12 Y8:AB12 U29:W29 C27:W28 AA27:AB29 C32:V33 U31:V31 Z31:AB33 H35:T36 X34:AB36 AO38:AW40">
-    <cfRule type="cellIs" dxfId="621" priority="659" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS17:AX18 AW14:AX16 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AL5:AX7 AN18:AW20 U40:X41 U42:AB42 C29:Q31 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 AI45:AW47 K37:AB38 U30:AB30 AD45:AE47 AD48:AW49 AD38:AK40 AD18:AJ20 AD10:AX13 AD12:AW17 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 U29:W29 C27:W28 AA27:AB29 U31:V31 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 X8:AX9 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 AD41:AW44 B43:AB49 A14:L20 A1:AX1 A7:AH7 A2:P6 Q6:Y6 V2:AX2 Q2:U5 V3:Y5 AA3:AX4 AA5:AH6 Z3:Z6 AD28:AW37 AO38:AW40 K39:X39 K40:Q42 K38:M42 A32:A42 K32:V33 K34:T36">
+    <cfRule type="cellIs" dxfId="781" priority="696" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 A26:W26 A15:U15 AX47:AX49 A36:B38 A21:B23 AX19:AX24 AS17:AX18 AW14:AX16 AX26:AX42 AR45:AX46 A50:AB50 A30:H33 A27:C29 A13:AB14 A8:C10 A5:J7 A24:AB25 B40:N49 A1:AX3 B3:M8 Q7:AB7 Q8:X9 C5:AB6 AL5:AX7 A19:T20 AN18:AW20 A39:X39 U40:X41 A40:Q42 U42:AB42 C29:Q31 AR25:AX25 C21:AB26 AR25:AW27 B19:M34 J18:T18 A16:F18 J16:AB17 B13:AB15 B9:D10 H9:M10 A11:D11 H10:U11 X18:AB20 C38:AB38 AB39:AB41 C43:AB49 AI45:AW47 A35:D35 B38:M49 B35:D37 H37:AB37 U30:AB30 A34:T34 AL30:AW32 AD30:AH32 AD45:AE47 AD48:AW49 AD38:AK40 AD18:AJ20 AD8:AX13 AD12:AW17 AD25:AN27 AD28:AW29 AD33:AW37 AD43:AX44 AD41:AW44 AD21:AW24 AD7:AH7 AD50:AX50 AC7:AC50 AF5:AH6 A4:AB4 AF4:AX4 A12:U12 Y8:AB12 U29:W29 C27:W28 AA27:AB29 C32:V33 U31:V31 Z31:AB33 H35:T36 X34:AB36 AO38:AW40">
-    <cfRule type="cellIs" dxfId="620" priority="658" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS17:AX18 AW14:AX16 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AL5:AX7 AN18:AW20 U40:X41 U42:AB42 C29:Q31 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 AI45:AW47 K37:AB38 U30:AB30 AD45:AE47 AD48:AW49 AD38:AK40 AD18:AJ20 AD10:AX13 AD12:AW17 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 U29:W29 C27:W28 AA27:AB29 U31:V31 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 X8:AX9 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 AD41:AW44 B43:AB49 A14:L20 A1:AX1 A7:AH7 A2:P6 Q6:Y6 V2:AX2 Q2:U5 V3:Y5 AA3:AX4 AA5:AH6 Z3:Z6 AD28:AW37 AO38:AW40 K39:X39 K40:Q42 K38:M42 A32:A42 K32:V33 K34:T36">
+    <cfRule type="cellIs" dxfId="780" priority="695" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 A26:W26 A15:U15 AX47:AX49 A36:B38 A21:B23 AX19:AX24 AS17:AX18 AW14:AX16 AX26:AX42 AR45:AX46 A50:AB50 A30:H33 A27:C29 A13:AB14 A8:C10 A5:J7 A24:AB25 B40:N49 A1:AX3 B3:M8 Q7:AB7 Q8:X9 C5:AB6 AL5:AX7 A19:T20 AN18:AW20 A39:X39 U40:X41 A40:Q42 U42:AB42 C29:Q31 AR25:AX25 C21:AB26 AR25:AW27 B19:M34 J18:T18 A16:F18 J16:AB17 B13:AB15 B9:D10 H9:M10 A11:D11 H10:U11 X18:AB20 C38:AB38 AB39:AB41 C43:AB49 AI45:AW47 A35:D35 B38:M49 B35:D37 H37:AB37 U30:AB30 A34:T34 AL30:AW32 AD30:AH32 AD45:AE47 AD48:AW49 AD38:AK40 AD18:AJ20 AD8:AX13 AD12:AW17 AD25:AN27 AD28:AW29 AD33:AW37 AD43:AX44 AD41:AW44 AD21:AW24 AD7:AH7 AD50:AX50 AC7:AC50 AF5:AH6 A4:AB4 AF4:AX4 A12:U12 Y8:AB12 U29:W29 C27:W28 AA27:AB29 C32:V33 U31:V31 Z31:AB33 H35:T36 X34:AB36 AO38:AW40">
-    <cfRule type="cellIs" dxfId="619" priority="657" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS17:AX18 AW14:AX16 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AL5:AX7 AN18:AW20 U40:X41 U42:AB42 C29:Q31 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 AI45:AW47 K37:AB38 U30:AB30 AD45:AE47 AD48:AW49 AD38:AK40 AD18:AJ20 AD10:AX13 AD12:AW17 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 U29:W29 C27:W28 AA27:AB29 U31:V31 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 X8:AX9 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 AD41:AW44 B43:AB49 A14:L20 A1:AX1 A7:AH7 A2:P6 Q6:Y6 V2:AX2 Q2:U5 V3:Y5 AA3:AX4 AA5:AH6 Z3:Z6 AD28:AW37 AO38:AW40 K39:X39 K40:Q42 K38:M42 A32:A42 K32:V33 K34:T36">
+    <cfRule type="cellIs" dxfId="779" priority="694" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="618" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="592" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="593" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="594" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="615" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="775" priority="590" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="614" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="591" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="613" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="588" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="589" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="611" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="587" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="610" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="586" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="609" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="769" priority="585" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="608" priority="547" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="584" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="607" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="441" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="606" priority="654" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="691" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="605" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="692" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="656" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="693" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="603" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="689" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="653" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="690" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="601" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="687" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="760" priority="688" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="599" priority="649" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="686" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="598" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="685" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="597" priority="647" operator="equal">
+    <cfRule type="cellIs" dxfId="757" priority="684" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="596" priority="646" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="683" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="595" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="680" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="644" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="681" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="593" priority="645" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="682" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="592" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="678" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="679" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="590" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="676" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="640" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="677" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="588" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="675" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="587" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="674" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="586" priority="636" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="673" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="585" priority="635" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="672" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="584" priority="632" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="669" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="670" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="671" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="581" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="667" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="631" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="668" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="579" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="665" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="666" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="577" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="664" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="576" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="663" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="575" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="662" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="574" priority="624" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="661" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="573" priority="621" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="658" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="622" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="659" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="623" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="660" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="570" priority="619" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="656" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="657" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="568" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="654" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="618" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="655" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="566" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="653" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="565" priority="615" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="652" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="564" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="651" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="563" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="650" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="562" priority="599" operator="equal">
+  <conditionalFormatting sqref="X26:Z26">
+    <cfRule type="cellIs" dxfId="722" priority="647" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="648" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="649" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="559" priority="597" operator="equal">
+  <conditionalFormatting sqref="X26:Z26">
+    <cfRule type="cellIs" dxfId="719" priority="645" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="598" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="646" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="557" priority="595" operator="equal">
+  <conditionalFormatting sqref="X26:Z26">
+    <cfRule type="cellIs" dxfId="717" priority="643" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="644" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="555" priority="594" operator="equal">
+  <conditionalFormatting sqref="X26:Z26">
+    <cfRule type="cellIs" dxfId="715" priority="642" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="554" priority="593" operator="equal">
+  <conditionalFormatting sqref="X26:Z26">
+    <cfRule type="cellIs" dxfId="714" priority="641" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="553" priority="592" operator="equal">
+  <conditionalFormatting sqref="X26:Z26">
+    <cfRule type="cellIs" dxfId="713" priority="640" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15:X17">
-    <cfRule type="cellIs" dxfId="552" priority="591" operator="equal">
+  <conditionalFormatting sqref="X26:Z26">
+    <cfRule type="cellIs" dxfId="712" priority="639" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="551" priority="610" operator="equal">
+  <conditionalFormatting sqref="AU36:AW36 AU41:AW41 AV35:AW35">
+    <cfRule type="cellIs" dxfId="711" priority="471" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="611" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="472" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="473" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="548" priority="608" operator="equal">
+  <conditionalFormatting sqref="AU36:AW36 AU41:AW41 AV35:AW35">
+    <cfRule type="cellIs" dxfId="708" priority="469" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="609" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="470" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="546" priority="606" operator="equal">
+  <conditionalFormatting sqref="AU36:AW36 AU41:AW41 AV35:AW35">
+    <cfRule type="cellIs" dxfId="706" priority="467" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="545" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="468" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="544" priority="605" operator="equal">
+  <conditionalFormatting sqref="AU36:AW36 AU41:AW41 AV35:AW35">
+    <cfRule type="cellIs" dxfId="704" priority="466" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="543" priority="604" operator="equal">
+  <conditionalFormatting sqref="AU36:AW36 AU41:AW41 AV35:AW35">
+    <cfRule type="cellIs" dxfId="703" priority="465" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="542" priority="603" operator="equal">
+  <conditionalFormatting sqref="AU36:AW36 AU41:AW41 AV35:AW35">
+    <cfRule type="cellIs" dxfId="702" priority="464" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="541" priority="602" operator="equal">
+  <conditionalFormatting sqref="AU36:AW36 AU41:AW41 AV35:AW35">
+    <cfRule type="cellIs" dxfId="701" priority="463" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="540" priority="434" operator="equal">
+  <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
+    <cfRule type="cellIs" dxfId="700" priority="548" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="549" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="550" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="537" priority="432" operator="equal">
+  <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
+    <cfRule type="cellIs" dxfId="697" priority="546" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="547" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="535" priority="430" operator="equal">
+  <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
+    <cfRule type="cellIs" dxfId="695" priority="544" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="545" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="533" priority="429" operator="equal">
+  <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
+    <cfRule type="cellIs" dxfId="693" priority="543" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="532" priority="428" operator="equal">
+  <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
+    <cfRule type="cellIs" dxfId="692" priority="542" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="531" priority="427" operator="equal">
+  <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
+    <cfRule type="cellIs" dxfId="691" priority="541" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU35:AW37">
-    <cfRule type="cellIs" dxfId="530" priority="426" operator="equal">
+  <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
+    <cfRule type="cellIs" dxfId="690" priority="540" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="529" priority="511" operator="equal">
+  <conditionalFormatting sqref="AF17:AH19">
+    <cfRule type="cellIs" dxfId="689" priority="537" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="538" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="527" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="539" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="526" priority="509" operator="equal">
+  <conditionalFormatting sqref="AF17:AH19">
+    <cfRule type="cellIs" dxfId="686" priority="535" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="685" priority="536" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="524" priority="507" operator="equal">
+  <conditionalFormatting sqref="AF17:AH19">
+    <cfRule type="cellIs" dxfId="684" priority="533" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="534" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="522" priority="506" operator="equal">
+  <conditionalFormatting sqref="AF17:AH19">
+    <cfRule type="cellIs" dxfId="682" priority="532" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="521" priority="505" operator="equal">
+  <conditionalFormatting sqref="AF17:AH19">
+    <cfRule type="cellIs" dxfId="681" priority="531" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="520" priority="504" operator="equal">
+  <conditionalFormatting sqref="AF17:AH19">
+    <cfRule type="cellIs" dxfId="680" priority="530" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="519" priority="503" operator="equal">
+  <conditionalFormatting sqref="AF17:AH19">
+    <cfRule type="cellIs" dxfId="679" priority="529" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="518" priority="500" operator="equal">
+  <conditionalFormatting sqref="AD40:AF42">
+    <cfRule type="cellIs" dxfId="678" priority="614" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="501" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="615" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="616" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="515" priority="498" operator="equal">
+  <conditionalFormatting sqref="AD40:AF42">
+    <cfRule type="cellIs" dxfId="675" priority="612" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="613" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="513" priority="496" operator="equal">
+  <conditionalFormatting sqref="AD40:AF42">
+    <cfRule type="cellIs" dxfId="673" priority="610" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="497" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="611" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="511" priority="495" operator="equal">
+  <conditionalFormatting sqref="AD40:AF42">
+    <cfRule type="cellIs" dxfId="671" priority="609" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="510" priority="494" operator="equal">
+  <conditionalFormatting sqref="AD40:AF42">
+    <cfRule type="cellIs" dxfId="670" priority="608" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="509" priority="493" operator="equal">
+  <conditionalFormatting sqref="AD40:AF42">
+    <cfRule type="cellIs" dxfId="669" priority="607" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="508" priority="492" operator="equal">
+  <conditionalFormatting sqref="AD40:AF42">
+    <cfRule type="cellIs" dxfId="668" priority="606" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="507" priority="577" operator="equal">
+  <conditionalFormatting sqref="AG48:AI48 AI46:AI47">
+    <cfRule type="cellIs" dxfId="667" priority="603" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="604" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="605" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="504" priority="575" operator="equal">
+  <conditionalFormatting sqref="AG48:AI48 AI46:AI47">
+    <cfRule type="cellIs" dxfId="664" priority="601" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="503" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="602" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="502" priority="573" operator="equal">
+  <conditionalFormatting sqref="AG48:AI48 AI46:AI47">
+    <cfRule type="cellIs" dxfId="662" priority="599" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="600" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="500" priority="572" operator="equal">
+  <conditionalFormatting sqref="AG48:AI48 AI46:AI47">
+    <cfRule type="cellIs" dxfId="660" priority="598" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="499" priority="571" operator="equal">
+  <conditionalFormatting sqref="AG48:AI48 AI46:AI47">
+    <cfRule type="cellIs" dxfId="659" priority="597" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="498" priority="570" operator="equal">
+  <conditionalFormatting sqref="AG48:AI48 AI46:AI47">
+    <cfRule type="cellIs" dxfId="658" priority="596" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="497" priority="569" operator="equal">
+  <conditionalFormatting sqref="AG48:AI48 AI46:AI47">
+    <cfRule type="cellIs" dxfId="657" priority="595" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG48:AI48 AI46:AI47">
-    <cfRule type="cellIs" dxfId="496" priority="566" operator="equal">
+  <conditionalFormatting sqref="AU47:AW49">
+    <cfRule type="cellIs" dxfId="656" priority="581" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="582" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="583" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG48:AI48 AI46:AI47">
-    <cfRule type="cellIs" dxfId="493" priority="564" operator="equal">
+  <conditionalFormatting sqref="AU47:AW49">
+    <cfRule type="cellIs" dxfId="653" priority="579" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="580" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG48:AI48 AI46:AI47">
-    <cfRule type="cellIs" dxfId="491" priority="562" operator="equal">
+  <conditionalFormatting sqref="AU47:AW49">
+    <cfRule type="cellIs" dxfId="651" priority="577" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="578" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG48:AI48 AI46:AI47">
-    <cfRule type="cellIs" dxfId="489" priority="561" operator="equal">
+  <conditionalFormatting sqref="AU47:AW49">
+    <cfRule type="cellIs" dxfId="649" priority="576" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG48:AI48 AI46:AI47">
-    <cfRule type="cellIs" dxfId="488" priority="560" operator="equal">
+  <conditionalFormatting sqref="AU47:AW49">
+    <cfRule type="cellIs" dxfId="648" priority="575" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG48:AI48 AI46:AI47">
-    <cfRule type="cellIs" dxfId="487" priority="559" operator="equal">
+  <conditionalFormatting sqref="AU47:AW49">
+    <cfRule type="cellIs" dxfId="647" priority="574" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG48:AI48 AI46:AI47">
-    <cfRule type="cellIs" dxfId="486" priority="558" operator="equal">
+  <conditionalFormatting sqref="AU47:AW49">
+    <cfRule type="cellIs" dxfId="646" priority="573" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="485" priority="544" operator="equal">
+  <conditionalFormatting sqref="C21:E23">
+    <cfRule type="cellIs" dxfId="634" priority="559" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="560" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="561" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="482" priority="542" operator="equal">
+  <conditionalFormatting sqref="C21:E23">
+    <cfRule type="cellIs" dxfId="631" priority="557" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="543" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="558" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="480" priority="540" operator="equal">
+  <conditionalFormatting sqref="C21:E23">
+    <cfRule type="cellIs" dxfId="629" priority="555" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="556" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="478" priority="539" operator="equal">
+  <conditionalFormatting sqref="C21:E23">
+    <cfRule type="cellIs" dxfId="627" priority="554" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="477" priority="538" operator="equal">
+  <conditionalFormatting sqref="C21:E23">
+    <cfRule type="cellIs" dxfId="626" priority="553" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="476" priority="537" operator="equal">
+  <conditionalFormatting sqref="C21:E23">
+    <cfRule type="cellIs" dxfId="625" priority="552" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="475" priority="536" operator="equal">
+  <conditionalFormatting sqref="C21:E23">
+    <cfRule type="cellIs" dxfId="624" priority="551" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:E38 C36:D37">
-    <cfRule type="cellIs" dxfId="474" priority="533" operator="equal">
+  <conditionalFormatting sqref="AK16:AM17">
+    <cfRule type="cellIs" dxfId="623" priority="526" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="527" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="528" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:E38 C36:D37">
-    <cfRule type="cellIs" dxfId="471" priority="531" operator="equal">
+  <conditionalFormatting sqref="AK16:AM17">
+    <cfRule type="cellIs" dxfId="620" priority="524" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="525" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:E38 C36:D37">
-    <cfRule type="cellIs" dxfId="469" priority="529" operator="equal">
+  <conditionalFormatting sqref="AK16:AM17">
+    <cfRule type="cellIs" dxfId="618" priority="522" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="523" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:E38 C36:D37">
-    <cfRule type="cellIs" dxfId="467" priority="528" operator="equal">
+  <conditionalFormatting sqref="AK16:AM17">
+    <cfRule type="cellIs" dxfId="616" priority="521" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:E38 C36:D37">
-    <cfRule type="cellIs" dxfId="466" priority="527" operator="equal">
+  <conditionalFormatting sqref="AK16:AM17">
+    <cfRule type="cellIs" dxfId="615" priority="520" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:E38 C36:D37">
-    <cfRule type="cellIs" dxfId="465" priority="526" operator="equal">
+  <conditionalFormatting sqref="AK16:AM17">
+    <cfRule type="cellIs" dxfId="614" priority="519" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:E38 C36:D37">
-    <cfRule type="cellIs" dxfId="464" priority="525" operator="equal">
+  <conditionalFormatting sqref="AK16:AM17">
+    <cfRule type="cellIs" dxfId="613" priority="518" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="463" priority="423" operator="equal">
+  <conditionalFormatting sqref="AP17:AR19">
+    <cfRule type="cellIs" dxfId="612" priority="515" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="516" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="517" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="460" priority="421" operator="equal">
+  <conditionalFormatting sqref="AP17:AR19">
+    <cfRule type="cellIs" dxfId="609" priority="513" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="514" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="458" priority="419" operator="equal">
+  <conditionalFormatting sqref="AP17:AR19">
+    <cfRule type="cellIs" dxfId="607" priority="511" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="512" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="456" priority="418" operator="equal">
+  <conditionalFormatting sqref="AP17:AR19">
+    <cfRule type="cellIs" dxfId="605" priority="510" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="455" priority="417" operator="equal">
+  <conditionalFormatting sqref="AP17:AR19">
+    <cfRule type="cellIs" dxfId="604" priority="509" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="454" priority="416" operator="equal">
+  <conditionalFormatting sqref="AP17:AR19">
+    <cfRule type="cellIs" dxfId="603" priority="508" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT39:AV41">
-    <cfRule type="cellIs" dxfId="453" priority="415" operator="equal">
+  <conditionalFormatting sqref="AP17:AR19">
+    <cfRule type="cellIs" dxfId="602" priority="507" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="452" priority="522" operator="equal">
+  <conditionalFormatting sqref="AT14:AV16">
+    <cfRule type="cellIs" dxfId="601" priority="504" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="505" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="506" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="449" priority="520" operator="equal">
+  <conditionalFormatting sqref="AT14:AV16">
+    <cfRule type="cellIs" dxfId="598" priority="502" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="503" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="447" priority="518" operator="equal">
+  <conditionalFormatting sqref="AT14:AV16">
+    <cfRule type="cellIs" dxfId="596" priority="500" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="501" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="445" priority="517" operator="equal">
+  <conditionalFormatting sqref="AT14:AV16">
+    <cfRule type="cellIs" dxfId="594" priority="499" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="444" priority="516" operator="equal">
+  <conditionalFormatting sqref="AT14:AV16">
+    <cfRule type="cellIs" dxfId="593" priority="498" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="443" priority="515" operator="equal">
+  <conditionalFormatting sqref="AT14:AV16">
+    <cfRule type="cellIs" dxfId="592" priority="497" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="442" priority="514" operator="equal">
+  <conditionalFormatting sqref="AT14:AV16">
+    <cfRule type="cellIs" dxfId="591" priority="496" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="441" priority="489" operator="equal">
+  <conditionalFormatting sqref="AS32:AW34 AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT31 AS36:AT36 AS41:AT41">
+    <cfRule type="cellIs" dxfId="590" priority="493" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="494" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="495" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="438" priority="487" operator="equal">
+  <conditionalFormatting sqref="AS32:AW34 AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT31 AS36:AT36 AS41:AT41">
+    <cfRule type="cellIs" dxfId="587" priority="491" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="492" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="436" priority="485" operator="equal">
+  <conditionalFormatting sqref="AS32:AW34 AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT31 AS36:AT36 AS41:AT41">
+    <cfRule type="cellIs" dxfId="585" priority="489" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="490" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="434" priority="484" operator="equal">
+  <conditionalFormatting sqref="AS32:AW34 AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT31 AS36:AT36 AS41:AT41">
+    <cfRule type="cellIs" dxfId="583" priority="488" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="433" priority="483" operator="equal">
+  <conditionalFormatting sqref="AS32:AW34 AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT31 AS36:AT36 AS41:AT41">
+    <cfRule type="cellIs" dxfId="582" priority="487" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="432" priority="482" operator="equal">
+  <conditionalFormatting sqref="AS32:AW34 AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT31 AS36:AT36 AS41:AT41">
+    <cfRule type="cellIs" dxfId="581" priority="486" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="431" priority="481" operator="equal">
+  <conditionalFormatting sqref="AS32:AW34 AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT31 AS36:AT36 AS41:AT41">
+    <cfRule type="cellIs" dxfId="580" priority="485" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="430" priority="478" operator="equal">
+  <conditionalFormatting sqref="AT27:AT29">
+    <cfRule type="cellIs" dxfId="579" priority="482" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="483" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="484" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="427" priority="476" operator="equal">
+  <conditionalFormatting sqref="AT27:AT29">
+    <cfRule type="cellIs" dxfId="576" priority="480" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="481" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="425" priority="474" operator="equal">
+  <conditionalFormatting sqref="AT27:AT29">
+    <cfRule type="cellIs" dxfId="574" priority="478" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="479" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="423" priority="473" operator="equal">
+  <conditionalFormatting sqref="AT27:AT29">
+    <cfRule type="cellIs" dxfId="572" priority="477" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="422" priority="472" operator="equal">
+  <conditionalFormatting sqref="AT27:AT29">
+    <cfRule type="cellIs" dxfId="571" priority="476" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="421" priority="471" operator="equal">
+  <conditionalFormatting sqref="AT27:AT29">
+    <cfRule type="cellIs" dxfId="570" priority="475" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP17:AR19">
-    <cfRule type="cellIs" dxfId="420" priority="470" operator="equal">
+  <conditionalFormatting sqref="AT27:AT29">
+    <cfRule type="cellIs" dxfId="569" priority="474" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="419" priority="467" operator="equal">
+  <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
+    <cfRule type="cellIs" dxfId="568" priority="449" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="450" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="451" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="416" priority="465" operator="equal">
+  <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
+    <cfRule type="cellIs" dxfId="565" priority="447" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="448" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="414" priority="463" operator="equal">
+  <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
+    <cfRule type="cellIs" dxfId="563" priority="445" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="446" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="412" priority="462" operator="equal">
+  <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
+    <cfRule type="cellIs" dxfId="561" priority="444" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="411" priority="461" operator="equal">
+  <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
+    <cfRule type="cellIs" dxfId="560" priority="443" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="410" priority="460" operator="equal">
+  <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
+    <cfRule type="cellIs" dxfId="559" priority="442" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT14:AV16">
-    <cfRule type="cellIs" dxfId="409" priority="459" operator="equal">
+  <conditionalFormatting sqref="D27:F29">
+    <cfRule type="cellIs" dxfId="558" priority="438" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="557" priority="439" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="556" priority="440" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:F29">
+    <cfRule type="cellIs" dxfId="555" priority="436" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="554" priority="437" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:F29">
+    <cfRule type="cellIs" dxfId="553" priority="434" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="552" priority="435" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:F29">
+    <cfRule type="cellIs" dxfId="551" priority="433" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:F29">
+    <cfRule type="cellIs" dxfId="550" priority="432" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:F29">
+    <cfRule type="cellIs" dxfId="549" priority="431" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:F29">
+    <cfRule type="cellIs" dxfId="548" priority="430" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT31 AW38:AW41">
-    <cfRule type="cellIs" dxfId="408" priority="456" operator="equal">
+  <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
+    <cfRule type="cellIs" dxfId="547" priority="416" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="417" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="418" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT31 AW38:AW41">
-    <cfRule type="cellIs" dxfId="405" priority="454" operator="equal">
+  <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
+    <cfRule type="cellIs" dxfId="544" priority="414" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="415" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT31 AW38:AW41">
-    <cfRule type="cellIs" dxfId="403" priority="452" operator="equal">
+  <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
+    <cfRule type="cellIs" dxfId="542" priority="412" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="413" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT31 AW38:AW41">
-    <cfRule type="cellIs" dxfId="401" priority="451" operator="equal">
+  <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
+    <cfRule type="cellIs" dxfId="540" priority="411" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT31 AW38:AW41">
-    <cfRule type="cellIs" dxfId="400" priority="450" operator="equal">
+  <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
+    <cfRule type="cellIs" dxfId="539" priority="410" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT31 AW38:AW41">
-    <cfRule type="cellIs" dxfId="399" priority="449" operator="equal">
+  <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
+    <cfRule type="cellIs" dxfId="538" priority="409" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS35:AT37 AS38:AW38 AS32:AW34 AS42:AW42 AS39:AS41 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT31 AW38:AW41">
-    <cfRule type="cellIs" dxfId="398" priority="448" operator="equal">
+  <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
+    <cfRule type="cellIs" dxfId="537" priority="408" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="397" priority="445" operator="equal">
+  <conditionalFormatting sqref="I10:K10 I8:J9">
+    <cfRule type="cellIs" dxfId="536" priority="405" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="406" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="407" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="394" priority="443" operator="equal">
+  <conditionalFormatting sqref="I10:K10 I8:J9">
+    <cfRule type="cellIs" dxfId="533" priority="403" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="404" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="392" priority="441" operator="equal">
+  <conditionalFormatting sqref="I10:K10 I8:J9">
+    <cfRule type="cellIs" dxfId="531" priority="401" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="402" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="390" priority="440" operator="equal">
+  <conditionalFormatting sqref="I10:K10 I8:J9">
+    <cfRule type="cellIs" dxfId="529" priority="400" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="389" priority="439" operator="equal">
+  <conditionalFormatting sqref="I10:K10 I8:J9">
+    <cfRule type="cellIs" dxfId="528" priority="399" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="388" priority="438" operator="equal">
+  <conditionalFormatting sqref="I10:K10 I8:J9">
+    <cfRule type="cellIs" dxfId="527" priority="398" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="387" priority="437" operator="equal">
+  <conditionalFormatting sqref="I10:K10 I8:J9">
+    <cfRule type="cellIs" dxfId="526" priority="397" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="386" priority="412" operator="equal">
+  <conditionalFormatting sqref="K7:R9 R5 P2:P6">
+    <cfRule type="cellIs" dxfId="525" priority="394" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="395" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="396" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="383" priority="410" operator="equal">
+  <conditionalFormatting sqref="K7:R9 R5 P2:P6">
+    <cfRule type="cellIs" dxfId="522" priority="392" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="393" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="381" priority="408" operator="equal">
+  <conditionalFormatting sqref="K7:R9 R5 P2:P6">
+    <cfRule type="cellIs" dxfId="520" priority="390" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="391" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="379" priority="407" operator="equal">
+  <conditionalFormatting sqref="K7:R9 R5 P2:P6">
+    <cfRule type="cellIs" dxfId="518" priority="389" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="378" priority="406" operator="equal">
+  <conditionalFormatting sqref="K7:R9 R5 P2:P6">
+    <cfRule type="cellIs" dxfId="517" priority="388" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="377" priority="405" operator="equal">
+  <conditionalFormatting sqref="K7:R9 R5 P2:P6">
+    <cfRule type="cellIs" dxfId="516" priority="387" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="376" priority="401" operator="equal">
+  <conditionalFormatting sqref="K7:R9 R5 P2:P6">
+    <cfRule type="cellIs" dxfId="515" priority="386" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25:AB25 P27:V28 W26:Y26 N10:P15 P32:V33 P29:Q31 U29:V31 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 N27:P49 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 N3 O3:O4 Q2:Q4 K39:M42">
+    <cfRule type="cellIs" dxfId="514" priority="383" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="384" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="385" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="373" priority="399" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V28 W26:Y26 N10:P15 P32:V33 P29:Q31 U29:V31 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 N27:P49 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 N3 O3:O4 Q2:Q4 K39:M42">
+    <cfRule type="cellIs" dxfId="511" priority="381" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="382" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="371" priority="397" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V28 W26:Y26 N10:P15 P32:V33 P29:Q31 U29:V31 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 N27:P49 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 N3 O3:O4 Q2:Q4 K39:M42">
+    <cfRule type="cellIs" dxfId="509" priority="379" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="380" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="369" priority="396" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V28 W26:Y26 N10:P15 P32:V33 P29:Q31 U29:V31 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 N27:P49 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 N3 O3:O4 Q2:Q4 K39:M42">
+    <cfRule type="cellIs" dxfId="507" priority="378" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="368" priority="395" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V28 W26:Y26 N10:P15 P32:V33 P29:Q31 U29:V31 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 N27:P49 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 N3 O3:O4 Q2:Q4 K39:M42">
+    <cfRule type="cellIs" dxfId="506" priority="377" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="367" priority="394" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V28 W26:Y26 N10:P15 P32:V33 P29:Q31 U29:V31 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 N27:P49 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 N3 O3:O4 Q2:Q4 K39:M42">
+    <cfRule type="cellIs" dxfId="505" priority="376" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="366" priority="393" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V28 W26:Y26 N10:P15 P32:V33 P29:Q31 U29:V31 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 N27:P49 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 N3 O3:O4 Q2:Q4 K39:M42">
+    <cfRule type="cellIs" dxfId="504" priority="375" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10">
-    <cfRule type="cellIs" dxfId="365" priority="379" operator="equal">
+  <conditionalFormatting sqref="K33:L35">
+    <cfRule type="cellIs" dxfId="492" priority="361" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="362" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="363" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10">
-    <cfRule type="cellIs" dxfId="362" priority="377" operator="equal">
+  <conditionalFormatting sqref="K33:L35">
+    <cfRule type="cellIs" dxfId="489" priority="359" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="360" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10">
-    <cfRule type="cellIs" dxfId="360" priority="375" operator="equal">
+  <conditionalFormatting sqref="K33:L35">
+    <cfRule type="cellIs" dxfId="487" priority="357" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="358" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10">
-    <cfRule type="cellIs" dxfId="358" priority="374" operator="equal">
+  <conditionalFormatting sqref="K33:L35">
+    <cfRule type="cellIs" dxfId="485" priority="356" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10">
-    <cfRule type="cellIs" dxfId="357" priority="373" operator="equal">
+  <conditionalFormatting sqref="K33:L35">
+    <cfRule type="cellIs" dxfId="484" priority="355" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10">
-    <cfRule type="cellIs" dxfId="356" priority="372" operator="equal">
+  <conditionalFormatting sqref="K33:L35">
+    <cfRule type="cellIs" dxfId="483" priority="354" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10">
-    <cfRule type="cellIs" dxfId="355" priority="371" operator="equal">
+  <conditionalFormatting sqref="K33:L35">
+    <cfRule type="cellIs" dxfId="482" priority="353" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="354" priority="368" operator="equal">
+  <conditionalFormatting sqref="T32:V33 U31:V31">
+    <cfRule type="cellIs" dxfId="481" priority="350" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="351" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="352" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="351" priority="366" operator="equal">
+  <conditionalFormatting sqref="T32:V33 U31:V31">
+    <cfRule type="cellIs" dxfId="478" priority="348" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="349" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="349" priority="364" operator="equal">
+  <conditionalFormatting sqref="T32:V33 U31:V31">
+    <cfRule type="cellIs" dxfId="476" priority="346" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="347" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="347" priority="363" operator="equal">
+  <conditionalFormatting sqref="T32:V33 U31:V31">
+    <cfRule type="cellIs" dxfId="474" priority="345" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="346" priority="362" operator="equal">
+  <conditionalFormatting sqref="T32:V33 U31:V31">
+    <cfRule type="cellIs" dxfId="473" priority="344" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="345" priority="361" operator="equal">
+  <conditionalFormatting sqref="T32:V33 U31:V31">
+    <cfRule type="cellIs" dxfId="472" priority="343" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:K10">
-    <cfRule type="cellIs" dxfId="344" priority="360" operator="equal">
+  <conditionalFormatting sqref="T32:V33 U31:V31">
+    <cfRule type="cellIs" dxfId="471" priority="342" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="343" priority="357" operator="equal">
+  <conditionalFormatting sqref="AL5:AX7 AN18:AX20 U40:X41 U42:AB42 A29:Q31 A21:N26 AR25:AX27 H9:J9 AB39:AB41 AI45:AX47 U30:AB30 AD45:AE47 AD48:AX50 AD38:AK40 AD18:AJ20 AD25:AN27 AD21:AX24 AD10:AX17 AC10:AC50 U29:W29 A27:W28 AA27:AB29 U31:V31 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 X8:AX9 W8:W17 T21:AB26 T18:T20 O16:S26 A8:J8 K8:V9 A9:G11 A12:V13 M14:S15 M16:N20 AX37:AX40 AD41:AX44 A43:AB50 A14:L20 A1:AX1 A7:AH7 A2:P6 Q6:Y6 V2:AX2 Q2:U5 V3:Y5 AA3:AX4 AA5:AH6 Z3:Z6 AW32:AW37 AD37:AW37 AD28:AX36 AO38:AW40 A32:A42 K39:X39 K40:Q42 K32:V33 K34:T36 K37:AB38">
+    <cfRule type="cellIs" dxfId="470" priority="338" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="469" priority="339" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="468" priority="340" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="467" priority="341" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI5:AK7">
+    <cfRule type="cellIs" dxfId="466" priority="305" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="306" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="307" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="340" priority="355" operator="equal">
+  <conditionalFormatting sqref="AI5:AK7">
+    <cfRule type="cellIs" dxfId="463" priority="303" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="304" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="338" priority="353" operator="equal">
+  <conditionalFormatting sqref="AI5:AK7">
+    <cfRule type="cellIs" dxfId="461" priority="301" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="302" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="336" priority="352" operator="equal">
+  <conditionalFormatting sqref="AI5:AK7">
+    <cfRule type="cellIs" dxfId="459" priority="300" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="335" priority="351" operator="equal">
+  <conditionalFormatting sqref="AI5:AK7">
+    <cfRule type="cellIs" dxfId="458" priority="299" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="334" priority="350" operator="equal">
+  <conditionalFormatting sqref="AI5:AK7">
+    <cfRule type="cellIs" dxfId="457" priority="298" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M7">
-    <cfRule type="cellIs" dxfId="333" priority="349" operator="equal">
+  <conditionalFormatting sqref="AI5:AK7">
+    <cfRule type="cellIs" dxfId="456" priority="297" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:M49 B12:E34 F13:AB15 F19:M20 O25:AB25 N2:P6 P25:V28 W26:Y26 N10:P49 P32:V33 P29:Q31 U29:V31 J18:M18 F16:F18 J16:AB17 H10:U11 B10:D11 B38:E38 B35:D37 AB10:AB11 Y8:AA11 AD25:AE25 F12:U12 Y12:AB12 W30:Y30 W27:W29">
-    <cfRule type="cellIs" dxfId="332" priority="346" operator="equal">
+  <conditionalFormatting sqref="AI5:AK7">
+    <cfRule type="cellIs" dxfId="455" priority="293" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="454" priority="294" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="453" priority="295" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="452" priority="296" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK18:AM20">
+    <cfRule type="cellIs" dxfId="451" priority="290" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="291" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="292" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:M49 B12:E34 F13:AB15 F19:M20 O25:AB25 N2:P6 P25:V28 W26:Y26 N10:P49 P32:V33 P29:Q31 U29:V31 J18:M18 F16:F18 J16:AB17 H10:U11 B10:D11 B38:E38 B35:D37 AB10:AB11 Y8:AA11 AD25:AE25 F12:U12 Y12:AB12 W30:Y30 W27:W29">
-    <cfRule type="cellIs" dxfId="329" priority="344" operator="equal">
+  <conditionalFormatting sqref="AK18:AM20">
+    <cfRule type="cellIs" dxfId="448" priority="288" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="289" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:M49 B12:E34 F13:AB15 F19:M20 O25:AB25 N2:P6 P25:V28 W26:Y26 N10:P49 P32:V33 P29:Q31 U29:V31 J18:M18 F16:F18 J16:AB17 H10:U11 B10:D11 B38:E38 B35:D37 AB10:AB11 Y8:AA11 AD25:AE25 F12:U12 Y12:AB12 W30:Y30 W27:W29">
-    <cfRule type="cellIs" dxfId="327" priority="342" operator="equal">
+  <conditionalFormatting sqref="AK18:AM20">
+    <cfRule type="cellIs" dxfId="446" priority="286" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="287" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:M49 B12:E34 F13:AB15 F19:M20 O25:AB25 N2:P6 P25:V28 W26:Y26 N10:P49 P32:V33 P29:Q31 U29:V31 J18:M18 F16:F18 J16:AB17 H10:U11 B10:D11 B38:E38 B35:D37 AB10:AB11 Y8:AA11 AD25:AE25 F12:U12 Y12:AB12 W30:Y30 W27:W29">
-    <cfRule type="cellIs" dxfId="325" priority="341" operator="equal">
+  <conditionalFormatting sqref="AK18:AM20">
+    <cfRule type="cellIs" dxfId="444" priority="285" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:M49 B12:E34 F13:AB15 F19:M20 O25:AB25 N2:P6 P25:V28 W26:Y26 N10:P49 P32:V33 P29:Q31 U29:V31 J18:M18 F16:F18 J16:AB17 H10:U11 B10:D11 B38:E38 B35:D37 AB10:AB11 Y8:AA11 AD25:AE25 F12:U12 Y12:AB12 W30:Y30 W27:W29">
-    <cfRule type="cellIs" dxfId="324" priority="340" operator="equal">
+  <conditionalFormatting sqref="AK18:AM20">
+    <cfRule type="cellIs" dxfId="443" priority="284" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:M49 B12:E34 F13:AB15 F19:M20 O25:AB25 N2:P6 P25:V28 W26:Y26 N10:P49 P32:V33 P29:Q31 U29:V31 J18:M18 F16:F18 J16:AB17 H10:U11 B10:D11 B38:E38 B35:D37 AB10:AB11 Y8:AA11 AD25:AE25 F12:U12 Y12:AB12 W30:Y30 W27:W29">
-    <cfRule type="cellIs" dxfId="323" priority="339" operator="equal">
+  <conditionalFormatting sqref="AK18:AM20">
+    <cfRule type="cellIs" dxfId="442" priority="283" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:M49 B12:E34 F13:AB15 F19:M20 O25:AB25 N2:P6 P25:V28 W26:Y26 N10:P49 P32:V33 P29:Q31 U29:V31 J18:M18 F16:F18 J16:AB17 H10:U11 B10:D11 B38:E38 B35:D37 AB10:AB11 Y8:AA11 AD25:AE25 F12:U12 Y12:AB12 W30:Y30 W27:W29">
-    <cfRule type="cellIs" dxfId="322" priority="338" operator="equal">
+  <conditionalFormatting sqref="AK18:AM20">
+    <cfRule type="cellIs" dxfId="441" priority="282" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="321" priority="335" operator="equal">
+  <conditionalFormatting sqref="AK18:AM20">
+    <cfRule type="cellIs" dxfId="440" priority="278" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="439" priority="279" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="438" priority="280" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="437" priority="281" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y39:AA41">
+    <cfRule type="cellIs" dxfId="436" priority="275" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="276" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="277" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="318" priority="333" operator="equal">
+  <conditionalFormatting sqref="Y39:AA41">
+    <cfRule type="cellIs" dxfId="433" priority="273" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="274" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="316" priority="331" operator="equal">
+  <conditionalFormatting sqref="Y39:AA41">
+    <cfRule type="cellIs" dxfId="431" priority="271" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="272" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="314" priority="330" operator="equal">
+  <conditionalFormatting sqref="Y39:AA41">
+    <cfRule type="cellIs" dxfId="429" priority="270" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="313" priority="329" operator="equal">
+  <conditionalFormatting sqref="Y39:AA41">
+    <cfRule type="cellIs" dxfId="428" priority="269" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="312" priority="328" operator="equal">
+  <conditionalFormatting sqref="Y39:AA41">
+    <cfRule type="cellIs" dxfId="427" priority="268" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:G42">
-    <cfRule type="cellIs" dxfId="311" priority="327" operator="equal">
+  <conditionalFormatting sqref="Y39:AA41">
+    <cfRule type="cellIs" dxfId="426" priority="267" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="310" priority="324" operator="equal">
+  <conditionalFormatting sqref="Y39:AA41">
+    <cfRule type="cellIs" dxfId="425" priority="263" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="264" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="423" priority="265" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="422" priority="266" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R40:T42">
+    <cfRule type="cellIs" dxfId="421" priority="260" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="261" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="262" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="307" priority="322" operator="equal">
+  <conditionalFormatting sqref="R40:T42">
+    <cfRule type="cellIs" dxfId="418" priority="258" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="259" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="305" priority="320" operator="equal">
+  <conditionalFormatting sqref="R40:T42">
+    <cfRule type="cellIs" dxfId="416" priority="256" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="257" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="303" priority="319" operator="equal">
+  <conditionalFormatting sqref="R40:T42">
+    <cfRule type="cellIs" dxfId="414" priority="255" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="302" priority="318" operator="equal">
+  <conditionalFormatting sqref="R40:T42">
+    <cfRule type="cellIs" dxfId="413" priority="254" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="301" priority="317" operator="equal">
+  <conditionalFormatting sqref="R40:T42">
+    <cfRule type="cellIs" dxfId="412" priority="253" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33:L35">
-    <cfRule type="cellIs" dxfId="300" priority="316" operator="equal">
+  <conditionalFormatting sqref="R40:T42">
+    <cfRule type="cellIs" dxfId="411" priority="252" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T32:V33 U31:V31">
-    <cfRule type="cellIs" dxfId="299" priority="313" operator="equal">
+  <conditionalFormatting sqref="R40:T42">
+    <cfRule type="cellIs" dxfId="410" priority="248" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="409" priority="249" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="408" priority="250" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="407" priority="251" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29:T31">
+    <cfRule type="cellIs" dxfId="406" priority="245" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="246" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="247" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T32:V33 U31:V31">
-    <cfRule type="cellIs" dxfId="296" priority="311" operator="equal">
+  <conditionalFormatting sqref="R29:T31">
+    <cfRule type="cellIs" dxfId="403" priority="243" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="244" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T32:V33 U31:V31">
-    <cfRule type="cellIs" dxfId="294" priority="309" operator="equal">
+  <conditionalFormatting sqref="R29:T31">
+    <cfRule type="cellIs" dxfId="401" priority="241" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="242" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T32:V33 U31:V31">
-    <cfRule type="cellIs" dxfId="292" priority="308" operator="equal">
+  <conditionalFormatting sqref="R29:T31">
+    <cfRule type="cellIs" dxfId="399" priority="240" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T32:V33 U31:V31">
-    <cfRule type="cellIs" dxfId="291" priority="307" operator="equal">
+  <conditionalFormatting sqref="R29:T31">
+    <cfRule type="cellIs" dxfId="398" priority="239" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T32:V33 U31:V31">
-    <cfRule type="cellIs" dxfId="290" priority="306" operator="equal">
+  <conditionalFormatting sqref="R29:T31">
+    <cfRule type="cellIs" dxfId="397" priority="238" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T32:V33 U31:V31">
-    <cfRule type="cellIs" dxfId="289" priority="305" operator="equal">
+  <conditionalFormatting sqref="R29:T31">
+    <cfRule type="cellIs" dxfId="396" priority="237" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX3 A13:AB15 A7:M8 Q7:AB7 Q8:X9 AL5:AX7 A19:T20 AN18:AX20 A39:X39 U40:X41 A40:Q42 U42:AB42 A29:Q31 A21:AB26 AR25:AX27 J18:T18 A16:F18 J16:AB17 H9:M9 A9:D11 H10:U11 X18:AB20 A38:AB38 AB39:AB41 A43:AB50 AI45:AX47 A35:D37 H37:AB37 U30:AB30 A34:T34 AL30:AX32 AD30:AH32 AD45:AE47 AD48:AX50 AD38:AK40 AD18:AJ20 AD25:AN27 AD28:AX29 AD33:AX37 AD41:AX44 AD21:AX24 AD7:AH7 AD8:AX17 AC7:AC50 AF5:AH6 A4:AB6 AF4:AX4 A12:U12 Y8:AB12 U29:W29 A27:W28 AA27:AB29 A32:V33 U31:V31 Z31:AB33 H35:T36 X34:AB36 AO38:AX40">
-    <cfRule type="cellIs" dxfId="288" priority="301" operator="equal">
+  <conditionalFormatting sqref="R29:T31">
+    <cfRule type="cellIs" dxfId="395" priority="233" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="234" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="235" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="236" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:P9">
-    <cfRule type="cellIs" dxfId="284" priority="298" operator="equal">
+  <conditionalFormatting sqref="AO25:AQ27">
+    <cfRule type="cellIs" dxfId="391" priority="230" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="231" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="232" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:P9">
-    <cfRule type="cellIs" dxfId="281" priority="296" operator="equal">
+  <conditionalFormatting sqref="AO25:AQ27">
+    <cfRule type="cellIs" dxfId="388" priority="228" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="229" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:P9">
-    <cfRule type="cellIs" dxfId="279" priority="294" operator="equal">
+  <conditionalFormatting sqref="AO25:AQ27">
+    <cfRule type="cellIs" dxfId="386" priority="226" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="227" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:P9">
-    <cfRule type="cellIs" dxfId="277" priority="293" operator="equal">
+  <conditionalFormatting sqref="AO25:AQ27">
+    <cfRule type="cellIs" dxfId="384" priority="225" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:P9">
-    <cfRule type="cellIs" dxfId="276" priority="292" operator="equal">
+  <conditionalFormatting sqref="AO25:AQ27">
+    <cfRule type="cellIs" dxfId="383" priority="224" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:P9">
-    <cfRule type="cellIs" dxfId="275" priority="291" operator="equal">
+  <conditionalFormatting sqref="AO25:AQ27">
+    <cfRule type="cellIs" dxfId="382" priority="223" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:P9">
-    <cfRule type="cellIs" dxfId="274" priority="290" operator="equal">
+  <conditionalFormatting sqref="AO25:AQ27">
+    <cfRule type="cellIs" dxfId="381" priority="222" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:P9">
-    <cfRule type="cellIs" dxfId="273" priority="286" operator="equal">
+  <conditionalFormatting sqref="AO25:AQ27">
+    <cfRule type="cellIs" dxfId="380" priority="218" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="219" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="220" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="221" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI5:AK7">
-    <cfRule type="cellIs" dxfId="269" priority="268" operator="equal">
+  <conditionalFormatting sqref="U18:W20">
+    <cfRule type="cellIs" dxfId="376" priority="185" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="186" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="187" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI5:AK7">
-    <cfRule type="cellIs" dxfId="266" priority="266" operator="equal">
+  <conditionalFormatting sqref="U18:W20">
+    <cfRule type="cellIs" dxfId="373" priority="183" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="184" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI5:AK7">
-    <cfRule type="cellIs" dxfId="264" priority="264" operator="equal">
+  <conditionalFormatting sqref="U18:W20">
+    <cfRule type="cellIs" dxfId="371" priority="181" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="182" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI5:AK7">
-    <cfRule type="cellIs" dxfId="262" priority="263" operator="equal">
+  <conditionalFormatting sqref="U18:W20">
+    <cfRule type="cellIs" dxfId="369" priority="180" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI5:AK7">
-    <cfRule type="cellIs" dxfId="261" priority="262" operator="equal">
+  <conditionalFormatting sqref="U18:W20">
+    <cfRule type="cellIs" dxfId="368" priority="179" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI5:AK7">
-    <cfRule type="cellIs" dxfId="260" priority="261" operator="equal">
+  <conditionalFormatting sqref="U18:W20">
+    <cfRule type="cellIs" dxfId="367" priority="178" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI5:AK7">
-    <cfRule type="cellIs" dxfId="259" priority="260" operator="equal">
+  <conditionalFormatting sqref="U18:W20">
+    <cfRule type="cellIs" dxfId="366" priority="177" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI5:AK7">
-    <cfRule type="cellIs" dxfId="258" priority="256" operator="equal">
+  <conditionalFormatting sqref="U18:W20">
+    <cfRule type="cellIs" dxfId="365" priority="173" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="174" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="175" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="176" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="254" priority="253" operator="equal">
+  <conditionalFormatting sqref="AL38:AN40">
+    <cfRule type="cellIs" dxfId="361" priority="170" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="171" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="172" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="251" priority="251" operator="equal">
+  <conditionalFormatting sqref="AL38:AN40">
+    <cfRule type="cellIs" dxfId="358" priority="168" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="169" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="249" priority="249" operator="equal">
+  <conditionalFormatting sqref="AL38:AN40">
+    <cfRule type="cellIs" dxfId="356" priority="166" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="167" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="247" priority="248" operator="equal">
+  <conditionalFormatting sqref="AL38:AN40">
+    <cfRule type="cellIs" dxfId="354" priority="165" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="246" priority="247" operator="equal">
+  <conditionalFormatting sqref="AL38:AN40">
+    <cfRule type="cellIs" dxfId="353" priority="164" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="245" priority="246" operator="equal">
+  <conditionalFormatting sqref="AL38:AN40">
+    <cfRule type="cellIs" dxfId="352" priority="163" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="244" priority="245" operator="equal">
+  <conditionalFormatting sqref="AL38:AN40">
+    <cfRule type="cellIs" dxfId="351" priority="162" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="243" priority="241" operator="equal">
+  <conditionalFormatting sqref="AL38:AN40">
+    <cfRule type="cellIs" dxfId="350" priority="158" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="159" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="160" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="161" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="239" priority="238" operator="equal">
+  <conditionalFormatting sqref="AF45:AH47">
+    <cfRule type="cellIs" dxfId="346" priority="155" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="156" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="157" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="236" priority="236" operator="equal">
+  <conditionalFormatting sqref="AF45:AH47">
+    <cfRule type="cellIs" dxfId="343" priority="153" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="154" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="234" priority="234" operator="equal">
+  <conditionalFormatting sqref="AF45:AH47">
+    <cfRule type="cellIs" dxfId="341" priority="151" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="152" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="232" priority="233" operator="equal">
+  <conditionalFormatting sqref="AF45:AH47">
+    <cfRule type="cellIs" dxfId="339" priority="150" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="231" priority="232" operator="equal">
+  <conditionalFormatting sqref="AF45:AH47">
+    <cfRule type="cellIs" dxfId="338" priority="149" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="230" priority="231" operator="equal">
+  <conditionalFormatting sqref="AF45:AH47">
+    <cfRule type="cellIs" dxfId="337" priority="148" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="229" priority="230" operator="equal">
+  <conditionalFormatting sqref="AF45:AH47">
+    <cfRule type="cellIs" dxfId="336" priority="147" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="228" priority="226" operator="equal">
+  <conditionalFormatting sqref="AF45:AH47">
+    <cfRule type="cellIs" dxfId="335" priority="143" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="144" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="145" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="146" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="224" priority="223" operator="equal">
+  <conditionalFormatting sqref="X27:Z29">
+    <cfRule type="cellIs" dxfId="316" priority="80" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="81" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="221" priority="221" operator="equal">
+  <conditionalFormatting sqref="X27:Z29">
+    <cfRule type="cellIs" dxfId="313" priority="78" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="79" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="219" priority="219" operator="equal">
+  <conditionalFormatting sqref="X27:Z29">
+    <cfRule type="cellIs" dxfId="311" priority="76" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="77" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="217" priority="218" operator="equal">
+  <conditionalFormatting sqref="X27:Z29">
+    <cfRule type="cellIs" dxfId="309" priority="75" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="216" priority="217" operator="equal">
+  <conditionalFormatting sqref="X27:Z29">
+    <cfRule type="cellIs" dxfId="308" priority="74" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="215" priority="216" operator="equal">
+  <conditionalFormatting sqref="X27:Z29">
+    <cfRule type="cellIs" dxfId="307" priority="73" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="214" priority="215" operator="equal">
+  <conditionalFormatting sqref="X27:Z29">
+    <cfRule type="cellIs" dxfId="306" priority="72" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="213" priority="211" operator="equal">
+  <conditionalFormatting sqref="X27:Z29">
+    <cfRule type="cellIs" dxfId="305" priority="68" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="69" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="70" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="71" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29:T31">
-    <cfRule type="cellIs" dxfId="209" priority="208" operator="equal">
+  <conditionalFormatting sqref="W31:Y33">
+    <cfRule type="cellIs" dxfId="301" priority="65" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="66" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="67" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29:T31">
-    <cfRule type="cellIs" dxfId="206" priority="206" operator="equal">
+  <conditionalFormatting sqref="W31:Y33">
+    <cfRule type="cellIs" dxfId="298" priority="63" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="64" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29:T31">
-    <cfRule type="cellIs" dxfId="204" priority="204" operator="equal">
+  <conditionalFormatting sqref="W31:Y33">
+    <cfRule type="cellIs" dxfId="296" priority="61" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="62" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29:T31">
-    <cfRule type="cellIs" dxfId="202" priority="203" operator="equal">
+  <conditionalFormatting sqref="W31:Y33">
+    <cfRule type="cellIs" dxfId="294" priority="60" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29:T31">
-    <cfRule type="cellIs" dxfId="201" priority="202" operator="equal">
+  <conditionalFormatting sqref="W31:Y33">
+    <cfRule type="cellIs" dxfId="293" priority="59" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29:T31">
-    <cfRule type="cellIs" dxfId="200" priority="201" operator="equal">
+  <conditionalFormatting sqref="W31:Y33">
+    <cfRule type="cellIs" dxfId="292" priority="58" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29:T31">
-    <cfRule type="cellIs" dxfId="199" priority="200" operator="equal">
+  <conditionalFormatting sqref="W31:Y33">
+    <cfRule type="cellIs" dxfId="291" priority="57" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29:T31">
-    <cfRule type="cellIs" dxfId="198" priority="196" operator="equal">
+  <conditionalFormatting sqref="W31:Y33">
+    <cfRule type="cellIs" dxfId="290" priority="53" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="54" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="55" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="56" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="194" priority="193" operator="equal">
+  <conditionalFormatting sqref="U34:W36">
+    <cfRule type="cellIs" dxfId="286" priority="50" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="191" priority="191" operator="equal">
+  <conditionalFormatting sqref="U34:W36">
+    <cfRule type="cellIs" dxfId="283" priority="48" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="49" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="189" priority="189" operator="equal">
+  <conditionalFormatting sqref="U34:W36">
+    <cfRule type="cellIs" dxfId="281" priority="46" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="47" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="187" priority="188" operator="equal">
+  <conditionalFormatting sqref="U34:W36">
+    <cfRule type="cellIs" dxfId="279" priority="45" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="186" priority="187" operator="equal">
+  <conditionalFormatting sqref="U34:W36">
+    <cfRule type="cellIs" dxfId="278" priority="44" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="185" priority="186" operator="equal">
+  <conditionalFormatting sqref="U34:W36">
+    <cfRule type="cellIs" dxfId="277" priority="43" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="184" priority="185" operator="equal">
+  <conditionalFormatting sqref="U34:W36">
+    <cfRule type="cellIs" dxfId="276" priority="42" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="183" priority="181" operator="equal">
+  <conditionalFormatting sqref="U34:W36">
+    <cfRule type="cellIs" dxfId="275" priority="38" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="39" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="40" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="41" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="179" priority="178" operator="equal">
+  <conditionalFormatting sqref="B32:J42">
+    <cfRule type="cellIs" dxfId="166" priority="35" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="36" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="176" priority="176" operator="equal">
+  <conditionalFormatting sqref="B32:J42">
+    <cfRule type="cellIs" dxfId="160" priority="33" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="34" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="174" priority="174" operator="equal">
+  <conditionalFormatting sqref="B32:J42">
+    <cfRule type="cellIs" dxfId="156" priority="31" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="32" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="172" priority="173" operator="equal">
+  <conditionalFormatting sqref="B32:J42">
+    <cfRule type="cellIs" dxfId="152" priority="30" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="171" priority="172" operator="equal">
+  <conditionalFormatting sqref="B32:J42">
+    <cfRule type="cellIs" dxfId="150" priority="29" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="170" priority="171" operator="equal">
+  <conditionalFormatting sqref="B32:J42">
+    <cfRule type="cellIs" dxfId="148" priority="28" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="169" priority="170" operator="equal">
+  <conditionalFormatting sqref="B32:J42">
+    <cfRule type="cellIs" dxfId="146" priority="27" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I18">
-    <cfRule type="cellIs" dxfId="168" priority="166" operator="equal">
+  <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
+    <cfRule type="cellIs" dxfId="144" priority="13" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="14" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
+    <cfRule type="cellIs" dxfId="138" priority="11" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="12" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
+    <cfRule type="cellIs" dxfId="134" priority="9" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="10" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
+    <cfRule type="cellIs" dxfId="130" priority="8" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
+    <cfRule type="cellIs" dxfId="128" priority="7" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
+    <cfRule type="cellIs" dxfId="126" priority="6" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
+    <cfRule type="cellIs" dxfId="124" priority="5" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
+    <cfRule type="cellIs" dxfId="122" priority="24" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="25" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
+    <cfRule type="cellIs" dxfId="116" priority="22" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="23" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
+    <cfRule type="cellIs" dxfId="112" priority="20" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="21" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
+    <cfRule type="cellIs" dxfId="108" priority="19" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
+    <cfRule type="cellIs" dxfId="106" priority="18" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
+    <cfRule type="cellIs" dxfId="104" priority="17" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
+    <cfRule type="cellIs" dxfId="102" priority="16" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:J42">
+    <cfRule type="cellIs" dxfId="100" priority="1" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="2" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="169" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:G11">
-    <cfRule type="cellIs" dxfId="164" priority="163" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="164" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="165" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:G11">
-    <cfRule type="cellIs" dxfId="161" priority="161" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="162" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:G11">
-    <cfRule type="cellIs" dxfId="159" priority="159" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="160" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:G11">
-    <cfRule type="cellIs" dxfId="157" priority="158" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:G11">
-    <cfRule type="cellIs" dxfId="156" priority="157" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:G11">
-    <cfRule type="cellIs" dxfId="155" priority="156" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:G11">
-    <cfRule type="cellIs" dxfId="154" priority="155" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:G11">
-    <cfRule type="cellIs" dxfId="153" priority="151" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="152" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="153" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="154" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="149" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="150" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="146" priority="146" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="147" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="144" priority="144" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="145" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="142" priority="143" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="141" priority="142" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="140" priority="141" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="139" priority="140" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="138" priority="136" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="137" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="138" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="139" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="134" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="135" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="131" priority="131" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="132" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="129" priority="129" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="130" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="127" priority="128" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="126" priority="127" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="125" priority="126" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="124" priority="125" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="123" priority="121" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="122" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="123" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="124" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF45:AH47">
-    <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="119" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="120" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF45:AH47">
-    <cfRule type="cellIs" dxfId="116" priority="116" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="117" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF45:AH47">
-    <cfRule type="cellIs" dxfId="114" priority="114" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF45:AH47">
-    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF45:AH47">
-    <cfRule type="cellIs" dxfId="111" priority="112" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF45:AH47">
-    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF45:AH47">
-    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF45:AH47">
-    <cfRule type="cellIs" dxfId="108" priority="106" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="107" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="108" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="109" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:G37">
-    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="105" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:G37">
-    <cfRule type="cellIs" dxfId="101" priority="101" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="102" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:G37">
-    <cfRule type="cellIs" dxfId="99" priority="99" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="100" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:G37">
-    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:G37">
-    <cfRule type="cellIs" dxfId="96" priority="97" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:G37">
-    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:G37">
-    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:G37">
-    <cfRule type="cellIs" dxfId="93" priority="91" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="93" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="94" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI30:AK32">
-    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="90" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI30:AK32">
-    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI30:AK32">
-    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI30:AK32">
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI30:AK32">
-    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI30:AK32">
-    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI30:AK32">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI30:AK32">
-    <cfRule type="cellIs" dxfId="78" priority="76" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="77" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="78" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="79" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC4:AE6">
-    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC4:AE6">
-    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC4:AE6">
-    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC4:AE6">
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC4:AE6">
-    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC4:AE6">
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC4:AE6">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC4:AE6">
-    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V10:X12">
-    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V10:X12">
-    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V10:X12">
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V10:X12">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V10:X12">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V10:X12">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V10:X12">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V10:X12">
-    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/SunLeo.xlsx
+++ b/Star Regein/Star Regein/SunLeo.xlsx
@@ -84,7 +84,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="667">
+  <dxfs count="488">
     <dxf>
       <fill>
         <patternFill>
@@ -286,34 +286,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -400,6 +372,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -486,34 +486,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1256,6 +1228,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1342,6 +1342,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1542,6 +1570,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1628,6 +1684,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1714,34 +1798,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1828,34 +1884,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1942,34 +1970,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2056,34 +2056,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2170,34 +2142,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2284,34 +2228,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2398,30 +2314,78 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2512,34 +2476,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2626,34 +2562,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2740,34 +2648,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2854,34 +2734,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2968,34 +2820,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -3599,6 +3423,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3857,6 +3691,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3928,1220 +3772,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6131,7 +4761,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6469,10 +5099,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K3" s="1">
         <v>5</v>
@@ -6481,91 +5111,91 @@
         <v>5</v>
       </c>
       <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
         <v>5</v>
       </c>
-      <c r="N3" s="1">
+      <c r="AM3" s="1">
         <v>5</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1">
+      <c r="AN3" s="1">
         <v>5</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AO3" s="1">
         <v>5</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>5</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>0</v>
       </c>
       <c r="AP3" s="1">
         <v>0</v>
@@ -6621,10 +5251,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1">
         <v>5</v>
@@ -6633,91 +5263,91 @@
         <v>5</v>
       </c>
       <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1">
         <v>5</v>
       </c>
-      <c r="N4" s="1">
+      <c r="AM4" s="1">
         <v>5</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="1">
+      <c r="AN4" s="1">
         <v>5</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AO4" s="1">
         <v>5</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>0</v>
       </c>
       <c r="AP4" s="1">
         <v>1</v>
@@ -8064,10 +6694,10 @@
         <v>0</v>
       </c>
       <c r="AH13" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI13" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ13" s="1">
         <v>0</v>
@@ -8219,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ14" s="1">
         <v>0</v>
@@ -8371,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ15" s="1">
         <v>0</v>
@@ -8401,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -8523,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ16" s="1">
         <v>0</v>
@@ -8675,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ17" s="1">
         <v>0</v>
@@ -10785,25 +9415,25 @@
         <v>0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ31" s="1">
         <v>0</v>
@@ -10937,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD32" s="1">
         <v>0</v>
@@ -11089,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD33" s="1">
         <v>0</v>
@@ -11241,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD34" s="1">
         <v>0</v>
@@ -11283,10 +9913,10 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="1">
         <v>0</v>
@@ -11318,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -11393,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD35" s="1">
         <v>0</v>
@@ -11435,10 +10065,10 @@
         <v>10</v>
       </c>
       <c r="AQ35" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR35" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="1">
         <v>0</v>
@@ -11470,10 +10100,10 @@
         <v>11</v>
       </c>
       <c r="D36" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -11587,10 +10217,10 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR36" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS36" s="1">
         <v>0</v>
@@ -11622,10 +10252,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -11745,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -11777,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -11900,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="AT38" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AU38" s="1">
         <v>0</v>
@@ -11926,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -12639,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="AM43" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN43" s="1">
         <v>0</v>
@@ -12791,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="AM44" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN44" s="1">
         <v>0</v>
@@ -12943,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="AM45" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN45" s="1">
         <v>0</v>
@@ -13095,7 +11725,7 @@
         <v>0</v>
       </c>
       <c r="AM46" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN46" s="1">
         <v>0</v>
@@ -13247,7 +11877,7 @@
         <v>0</v>
       </c>
       <c r="AM47" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN47" s="1">
         <v>0</v>
@@ -13399,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="AM48" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN48" s="1">
         <v>0</v>
@@ -13551,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="AM49" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN49" s="1">
         <v>0</v>
@@ -13741,2051 +12371,2051 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 A2:P6 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 AA3:AW4 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31">
-    <cfRule type="cellIs" dxfId="25" priority="739" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3">
+    <cfRule type="cellIs" dxfId="487" priority="739" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="740" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="740" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="741" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="741" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 A2:P6 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 AA3:AW4 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31">
-    <cfRule type="cellIs" dxfId="22" priority="737" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3">
+    <cfRule type="cellIs" dxfId="484" priority="737" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="738" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="738" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 A2:P6 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 AA3:AW4 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31">
-    <cfRule type="cellIs" dxfId="20" priority="735" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3">
+    <cfRule type="cellIs" dxfId="482" priority="735" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="736" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="736" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 A2:P6 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 AA3:AW4 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31">
-    <cfRule type="cellIs" dxfId="18" priority="734" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3">
+    <cfRule type="cellIs" dxfId="480" priority="734" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 A2:P6 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 AA3:AW4 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31">
-    <cfRule type="cellIs" dxfId="17" priority="733" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3">
+    <cfRule type="cellIs" dxfId="479" priority="733" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 A2:P6 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 AA3:AW4 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31">
-    <cfRule type="cellIs" dxfId="16" priority="732" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3">
+    <cfRule type="cellIs" dxfId="478" priority="732" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 A2:P6 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 AA3:AW4 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31">
-    <cfRule type="cellIs" dxfId="15" priority="731" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3">
+    <cfRule type="cellIs" dxfId="477" priority="731" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="666" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="629" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="630" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="631" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="631" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="663" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="627" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="662" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="628" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="661" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="625" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="626" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="659" priority="624" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="624" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="658" priority="623" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="623" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="657" priority="622" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="622" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="656" priority="621" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="621" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="655" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="478" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="654" priority="728" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="728" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="729" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="729" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="730" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="730" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="651" priority="726" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="726" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="727" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="727" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="649" priority="724" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="724" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="725" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="725" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="647" priority="723" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="723" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="646" priority="722" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="722" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="645" priority="721" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="721" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="644" priority="720" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="720" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="643" priority="717" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="717" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="718" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="718" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="719" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="719" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="640" priority="715" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="715" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="716" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="716" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="638" priority="713" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="713" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="714" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="714" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="636" priority="712" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="712" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="635" priority="711" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="711" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="634" priority="710" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="710" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="633" priority="709" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="709" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="632" priority="706" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="706" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="707" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="707" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="708" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="708" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="629" priority="704" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="704" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="705" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="705" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="627" priority="702" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="702" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="703" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="703" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="625" priority="701" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="701" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="624" priority="700" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="700" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="623" priority="699" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="699" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="622" priority="698" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="698" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="621" priority="695" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="695" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="696" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="696" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="697" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="697" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="618" priority="693" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="693" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="694" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="616" priority="691" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="691" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="692" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="692" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="614" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="690" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="613" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="689" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="612" priority="688" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="688" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="611" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="687" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="610" priority="684" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="684" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="685" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="608" priority="686" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="686" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="607" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="682" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="683" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="683" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="605" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="680" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="681" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="603" priority="679" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="679" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="602" priority="678" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="678" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="601" priority="677" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="677" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="600" priority="676" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="676" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="588" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="585" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="587" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="586" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="587" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="585" priority="583" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="583" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="584" priority="584" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="584" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="583" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="581" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="582" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="582" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="581" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="580" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="580" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="579" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="579" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="578" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="578" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="577" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="577" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="574" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="575" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="575" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="576" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="574" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="572" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="573" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="572" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="570" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="571" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="570" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="569" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="569" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="568" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="568" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="567" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="567" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="566" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="566" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="651" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="652" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="653" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="653" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="563" priority="649" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="649" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="650" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="561" priority="647" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="647" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="648" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="559" priority="646" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="646" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="558" priority="645" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="645" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="557" priority="644" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="644" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="556" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="643" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="555" priority="640" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="640" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="641" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="642" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="552" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="638" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="639" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="550" priority="636" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="636" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="637" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="548" priority="635" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="635" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="547" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="634" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="546" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="633" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="545" priority="632" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="632" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="544" priority="618" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="618" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="619" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="619" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="620" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="541" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="616" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="617" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="539" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="614" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="615" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="615" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="537" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="613" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="536" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="612" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="535" priority="611" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="611" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="534" priority="610" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="610" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="533" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="596" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="597" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="598" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="598" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="530" priority="594" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="594" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="595" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="595" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="528" priority="592" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="592" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="527" priority="593" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="593" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="526" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="591" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="525" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="590" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="524" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="589" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="523" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="588" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="522" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="563" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="564" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="565" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="519" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="561" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="562" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="517" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="559" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="560" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="515" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="558" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="514" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="557" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="513" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="556" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="512" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="555" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="511" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="552" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="553" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="554" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="508" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="550" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="551" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="506" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="548" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="549" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="504" priority="547" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="547" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="503" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="546" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="502" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="545" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="501" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="544" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="489" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="530" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="531" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="532" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="486" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="528" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="529" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="484" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="526" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="527" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="482" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="525" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="481" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="524" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="480" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="523" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="479" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="522" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="478" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="519" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="520" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="521" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="475" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="517" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="518" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="473" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="515" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="516" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="471" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="514" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="470" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="513" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="469" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="512" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="468" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="511" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="467" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="486" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="487" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="488" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="464" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="484" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="485" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="462" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="482" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="483" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="460" priority="481" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="481" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="459" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="480" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="458" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="479" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="457" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="475" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="476" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="477" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="454" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="473" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="474" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="452" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="471" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="472" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="450" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="470" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="449" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="469" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="448" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="468" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="447" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="467" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="446" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="453" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="454" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="455" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="443" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="451" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="452" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="441" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="449" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="450" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="439" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="448" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="438" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="447" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="437" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="446" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="436" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="445" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="435" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="442" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="443" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="444" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="432" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="440" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="441" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="430" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="438" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="439" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="428" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="437" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="427" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="436" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="426" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="435" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="425" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="434" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="424" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="431" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="432" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="433" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="421" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="429" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="430" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="419" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="427" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="428" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="417" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="426" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="416" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="425" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="415" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="424" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="414" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="423" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 N3 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32">
-    <cfRule type="cellIs" dxfId="14" priority="420" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3">
+    <cfRule type="cellIs" dxfId="245" priority="420" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="421" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="422" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 N3 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32">
-    <cfRule type="cellIs" dxfId="11" priority="418" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3">
+    <cfRule type="cellIs" dxfId="242" priority="418" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="419" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 N3 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32">
-    <cfRule type="cellIs" dxfId="9" priority="416" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3">
+    <cfRule type="cellIs" dxfId="240" priority="416" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="417" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 N3 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32">
-    <cfRule type="cellIs" dxfId="7" priority="415" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3">
+    <cfRule type="cellIs" dxfId="238" priority="415" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 N3 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32">
-    <cfRule type="cellIs" dxfId="6" priority="414" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3">
+    <cfRule type="cellIs" dxfId="237" priority="414" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 N3 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32">
-    <cfRule type="cellIs" dxfId="5" priority="413" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3">
+    <cfRule type="cellIs" dxfId="236" priority="413" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 N3 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32">
-    <cfRule type="cellIs" dxfId="4" priority="412" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3">
+    <cfRule type="cellIs" dxfId="235" priority="412" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="413" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="398" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="399" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="400" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="410" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="396" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="397" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="408" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="394" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="395" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="406" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="393" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="405" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="392" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="404" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="391" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="403" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="390" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="402" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="387" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="388" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="389" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="399" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="385" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="386" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="397" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="383" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="384" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="395" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="382" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="394" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="381" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="393" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="380" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="392" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="379" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN18:AX20 U40:X41 U42:AB42 A21:N26 AR25:AX27 H9:J9 AB39:AB41 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD21:AX24 AD10:AO17 AC10:AC50 A27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 A8:J8 K8:V9 A9:G11 A12:V13 M14:S15 M16:N20 A43:AB50 A14:L20 A1:AX1 A7:AF7 A2:P6 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AX30 A32:A42 K39:X39 K40:Q42 K33:V33 K34:T36 K37:AB38 AD31:AN37 AD41:AN41 AX31:AX41 AX2:AX4 V2:AW2 AA3:AW4 X9:AO9 AG5:AX7 AX8:AX17 AP9:AW17 X8:AW8 AD42:AX50 V31:V32 V28:W29 P29:U32 K32:U32 A28:U31">
-    <cfRule type="cellIs" dxfId="3" priority="375" operator="equal">
+  <conditionalFormatting sqref="AN18:AX20 U40:X41 U42:AB42 A21:N26 AR25:AX27 H9:J9 AB39:AB41 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD21:AX24 AD10:AO17 AC10:AC50 A27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 A8:J8 K8:V9 A9:G11 A12:V13 M14:S15 M16:N20 A43:AB50 A14:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AX30 A32:A42 K39:X39 K40:Q42 K33:V33 K34:T36 K37:AB38 AD31:AN37 AD41:AN41 AX31:AX41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AX8:AX17 AP9:AW17 X8:AW8 AD42:AX50 V31:V32 V28:W29 P29:U32 K32:U32 A28:U31 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3">
+    <cfRule type="cellIs" dxfId="212" priority="375" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="376" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="377" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="378" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="376" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="327" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="328" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="329" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="373" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="325" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="326" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="371" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="323" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="324" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="369" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="322" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="368" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="321" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="367" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="320" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="366" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="319" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="365" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="315" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="316" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="317" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="318" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="361" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="312" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="313" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="358" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="310" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="311" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="356" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="308" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="309" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="354" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="307" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="353" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="306" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="352" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="305" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="351" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="304" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="350" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="300" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="301" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="302" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="303" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="346" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="297" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="298" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="299" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="343" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="295" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="296" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="341" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="293" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="294" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="339" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="292" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="338" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="291" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="337" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="290" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="336" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="289" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="335" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="285" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="286" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="287" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="288" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="316" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="267" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="268" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="269" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="313" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="265" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="266" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="311" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="263" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="264" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="309" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="262" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="308" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="261" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="307" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="260" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="306" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="259" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="305" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="255" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="256" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="257" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="258" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="301" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="222" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="223" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="224" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="298" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="220" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="221" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="296" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="218" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="219" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="294" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="217" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="293" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="216" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="292" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="215" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="291" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="214" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="290" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="210" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="211" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="212" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="213" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="286" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="207" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="208" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="209" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="283" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="205" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="206" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="281" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="203" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="204" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="279" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="202" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="278" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="201" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="277" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="200" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="276" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="199" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="275" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="195" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="196" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="197" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="198" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="256" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="117" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="118" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="119" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="253" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="115" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="116" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="251" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="113" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="114" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="249" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="112" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="248" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="247" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="246" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="245" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="105" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="108" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="241" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="102" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="238" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="100" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="101" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="236" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="234" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="97" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="233" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="232" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="231" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="230" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="90" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="92" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="93" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="226" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="87" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="89" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="223" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="85" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="221" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="219" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="218" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="217" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="216" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="215" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="75" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="77" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="78" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:J42">
-    <cfRule type="cellIs" dxfId="211" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="72" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:J42">
-    <cfRule type="cellIs" dxfId="208" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:J42">
-    <cfRule type="cellIs" dxfId="206" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="69" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:J42">
-    <cfRule type="cellIs" dxfId="204" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:J42">
-    <cfRule type="cellIs" dxfId="203" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:J42">
-    <cfRule type="cellIs" dxfId="202" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:J42">
-    <cfRule type="cellIs" dxfId="201" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
-    <cfRule type="cellIs" dxfId="200" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="50" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
-    <cfRule type="cellIs" dxfId="197" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="48" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="49" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
-    <cfRule type="cellIs" dxfId="195" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="46" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="47" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
-    <cfRule type="cellIs" dxfId="193" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
-    <cfRule type="cellIs" dxfId="192" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="44" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
-    <cfRule type="cellIs" dxfId="191" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
-    <cfRule type="cellIs" dxfId="190" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="42" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
-    <cfRule type="cellIs" dxfId="189" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
-    <cfRule type="cellIs" dxfId="186" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="59" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="60" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
-    <cfRule type="cellIs" dxfId="184" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
-    <cfRule type="cellIs" dxfId="182" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="56" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
-    <cfRule type="cellIs" dxfId="181" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
-    <cfRule type="cellIs" dxfId="180" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
-    <cfRule type="cellIs" dxfId="179" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="53" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:J42">
-    <cfRule type="cellIs" dxfId="178" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="174" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="171" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="169" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="167" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="166" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="165" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="164" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="163" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="160" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="158" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="156" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="155" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="154" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="153" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="152" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="149" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="23" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="147" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="21" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="145" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="144" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="143" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="142" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="141" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/SunLeo.xlsx
+++ b/Star Regein/Star Regein/SunLeo.xlsx
@@ -84,7 +84,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="488">
+  <dxfs count="526">
     <dxf>
       <fill>
         <patternFill>
@@ -200,6 +200,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -282,6 +310,262 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333399"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF339933"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4761,12 +5045,16 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="6" max="7" width="2.625" customWidth="1"/>
+    <col min="8" max="8" width="2.125" customWidth="1"/>
+    <col min="20" max="20" width="2.5" customWidth="1"/>
     <col min="23" max="38" width="2.5" customWidth="1"/>
+    <col min="41" max="41" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.15">
@@ -4983,10 +5271,10 @@
         <v>0</v>
       </c>
       <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
         <v>3</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
       </c>
       <c r="W2" s="1">
         <v>0</v>
@@ -5099,10 +5387,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>5</v>
@@ -5251,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>5</v>
@@ -5740,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U7" s="1">
         <v>10</v>
@@ -5758,7 +6046,7 @@
         <v>11</v>
       </c>
       <c r="Z7" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AA7" s="1">
         <v>1</v>
@@ -5850,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -6527,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="1">
         <v>0</v>
@@ -6640,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
@@ -6664,7 +6952,7 @@
         <v>1</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y13" s="1">
         <v>0</v>
@@ -6694,10 +6982,10 @@
         <v>0</v>
       </c>
       <c r="AH13" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>0</v>
@@ -6773,13 +7061,13 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="J14" s="2">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14" s="1">
@@ -6849,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>0</v>
@@ -6902,7 +7190,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -6925,13 +7213,13 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
         <v>0</v>
       </c>
       <c r="M15" s="1">
@@ -7001,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>0</v>
@@ -7057,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -7077,13 +7365,13 @@
       <c r="I16" s="1">
         <v>0</v>
       </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
         <v>0</v>
       </c>
       <c r="M16" s="1">
@@ -7114,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W16" s="1">
         <v>1</v>
@@ -7147,13 +7435,13 @@
         <v>10</v>
       </c>
       <c r="AG16" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH16" s="1">
         <v>0</v>
       </c>
       <c r="AI16" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>0</v>
@@ -7212,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -7305,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>0</v>
@@ -7361,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -7439,7 +7727,7 @@
         <v>10</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD18" s="1">
         <v>1</v>
@@ -7510,7 +7798,7 @@
         <v>99</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -7555,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
@@ -7665,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -7820,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -7969,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -7978,10 +8266,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -8083,13 +8371,13 @@
         <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AP22" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AQ22" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AR22" s="1">
         <v>0</v>
@@ -8118,7 +8406,7 @@
         <v>99</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -8130,10 +8418,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -8235,13 +8523,13 @@
         <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AP23" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AQ23" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AR23" s="1">
         <v>0</v>
@@ -8387,13 +8675,13 @@
         <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AP24" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AQ24" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AR24" s="1">
         <v>0</v>
@@ -8901,13 +9189,13 @@
       <c r="I28" s="1">
         <v>11</v>
       </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
+      <c r="J28" s="2">
+        <v>6</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
         <v>0</v>
       </c>
       <c r="M28" s="1">
@@ -9036,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -9053,13 +9341,13 @@
       <c r="I29" s="1">
         <v>0</v>
       </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
         <v>0</v>
       </c>
       <c r="M29" s="1">
@@ -9205,13 +9493,13 @@
       <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
         <v>0</v>
       </c>
       <c r="M30" s="1">
@@ -9278,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="AH30" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI30" s="1">
         <v>0</v>
@@ -9334,7 +9622,7 @@
         <v>99</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -9415,22 +9703,22 @@
         <v>0</v>
       </c>
       <c r="AC31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="1">
         <v>5</v>
       </c>
       <c r="AF31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="1">
         <v>5</v>
       </c>
       <c r="AH31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="1">
         <v>5</v>
@@ -9489,25 +9777,25 @@
         <v>0</v>
       </c>
       <c r="C32" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I32" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -9638,37 +9926,37 @@
         <v>99</v>
       </c>
       <c r="B33" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9719,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="1">
         <v>0</v>
@@ -9793,28 +10081,28 @@
         <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -9823,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="1">
         <v>0</v>
@@ -9871,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="1">
         <v>0</v>
@@ -9942,7 +10230,7 @@
         <v>99</v>
       </c>
       <c r="B35" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -9966,13 +10254,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -10097,13 +10385,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -10115,10 +10403,10 @@
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -10246,7 +10534,7 @@
         <v>99</v>
       </c>
       <c r="B37" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -10270,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
@@ -10398,16 +10686,16 @@
         <v>99</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -10416,10 +10704,10 @@
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I38" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -10550,34 +10838,34 @@
         <v>99</v>
       </c>
       <c r="B39" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
       </c>
       <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>10</v>
+      </c>
+      <c r="H39" s="1">
+        <v>10</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
         <v>5</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>11</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
       </c>
       <c r="L39" s="1">
         <v>0</v>
@@ -10702,28 +10990,28 @@
         <v>99</v>
       </c>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I40" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -10854,31 +11142,31 @@
         <v>99</v>
       </c>
       <c r="B41" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H41" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
       </c>
       <c r="J41" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
@@ -11009,25 +11297,25 @@
         <v>0</v>
       </c>
       <c r="C42" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1">
         <v>0</v>
@@ -11167,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -11330,13 +11618,13 @@
       <c r="H44" s="1">
         <v>0</v>
       </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1">
+      <c r="I44" s="2">
+        <v>6</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
         <v>0</v>
       </c>
       <c r="L44" s="1">
@@ -11418,10 +11706,10 @@
         <v>0</v>
       </c>
       <c r="AL44" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM44" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN44" s="1">
         <v>0</v>
@@ -11465,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -11477,19 +11765,19 @@
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
       </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
-        <v>11</v>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
       </c>
       <c r="L45" s="1">
         <v>0</v>
@@ -11510,7 +11798,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S45" s="1">
         <v>0</v>
@@ -11634,13 +11922,13 @@
       <c r="H46" s="1">
         <v>0</v>
       </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1">
-        <v>11</v>
-      </c>
-      <c r="K46" s="1">
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
         <v>0</v>
       </c>
       <c r="L46" s="1">
@@ -11725,10 +12013,10 @@
         <v>0</v>
       </c>
       <c r="AM46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="1">
         <v>5</v>
-      </c>
-      <c r="AN46" s="1">
-        <v>0</v>
       </c>
       <c r="AO46" s="1">
         <v>0</v>
@@ -11930,7 +12218,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -11957,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P48" s="1">
         <v>0</v>
@@ -12026,10 +12314,10 @@
         <v>0</v>
       </c>
       <c r="AL48" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM48" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN48" s="1">
         <v>0</v>
@@ -12371,2051 +12659,2079 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3">
-    <cfRule type="cellIs" dxfId="487" priority="739" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24">
+    <cfRule type="cellIs" dxfId="525" priority="784" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="740" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="785" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="741" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="786" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3">
-    <cfRule type="cellIs" dxfId="484" priority="737" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24">
+    <cfRule type="cellIs" dxfId="522" priority="782" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="738" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="783" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3">
-    <cfRule type="cellIs" dxfId="482" priority="735" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24">
+    <cfRule type="cellIs" dxfId="520" priority="780" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="736" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="781" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3">
-    <cfRule type="cellIs" dxfId="480" priority="734" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24">
+    <cfRule type="cellIs" dxfId="518" priority="779" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3">
-    <cfRule type="cellIs" dxfId="479" priority="733" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24">
+    <cfRule type="cellIs" dxfId="517" priority="778" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3">
-    <cfRule type="cellIs" dxfId="478" priority="732" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24">
+    <cfRule type="cellIs" dxfId="516" priority="777" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:O45 A43:AB43 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M31 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD21:AW24 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 B43:AB49 A14:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 A32:A42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 C28:U31 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3">
-    <cfRule type="cellIs" dxfId="477" priority="731" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24">
+    <cfRule type="cellIs" dxfId="515" priority="776" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="476" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="674" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="675" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="631" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="676" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="473" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="672" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="673" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="471" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="670" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="671" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="469" priority="624" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="669" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="468" priority="623" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="668" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="467" priority="622" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="667" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="466" priority="621" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="666" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="465" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="523" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="464" priority="728" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="773" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="729" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="774" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="730" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="775" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="461" priority="726" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="771" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="727" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="772" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="459" priority="724" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="769" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="725" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="770" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="457" priority="723" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="768" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="456" priority="722" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="767" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="455" priority="721" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="766" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="454" priority="720" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="765" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="453" priority="717" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="762" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="718" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="763" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="719" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="764" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="450" priority="715" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="760" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="716" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="761" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="448" priority="713" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="758" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="714" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="759" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="446" priority="712" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="757" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="445" priority="711" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="756" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="444" priority="710" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="755" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="443" priority="709" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="754" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="442" priority="706" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="751" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="707" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="752" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="708" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="753" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="439" priority="704" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="749" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="705" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="750" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="437" priority="702" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="747" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="703" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="748" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="435" priority="701" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="746" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="434" priority="700" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="745" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="433" priority="699" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="744" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="432" priority="698" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="743" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="431" priority="695" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="740" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="696" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="741" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="697" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="742" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="428" priority="693" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="738" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="739" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="426" priority="691" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="736" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="692" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="737" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="424" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="735" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="423" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="734" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="422" priority="688" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="733" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="421" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="732" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="420" priority="684" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="729" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="730" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="686" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="731" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="417" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="727" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="683" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="728" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="415" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="725" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="726" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="413" priority="679" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="724" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="412" priority="678" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="723" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="411" priority="677" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="722" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="410" priority="676" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="721" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="409" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="630" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="631" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="632" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="406" priority="583" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="628" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="584" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="629" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="404" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="626" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="582" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="627" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="402" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="625" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="401" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="624" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="400" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="623" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="399" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="622" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="398" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="619" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="575" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="620" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="621" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="395" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="617" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="618" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="393" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="615" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="616" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="391" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="614" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="390" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="613" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="389" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="612" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="388" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="611" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="387" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="696" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="697" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="653" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="698" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="384" priority="649" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="694" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="695" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="382" priority="647" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="692" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="693" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="380" priority="646" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="691" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="379" priority="645" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="690" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="378" priority="644" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="689" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="377" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="688" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="376" priority="640" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="685" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="686" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="687" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="373" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="683" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="684" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="371" priority="636" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="681" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="682" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="369" priority="635" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="680" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="368" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="679" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="367" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="678" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="366" priority="632" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="677" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="365" priority="618" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="663" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="619" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="664" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="665" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="362" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="661" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="662" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="360" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="659" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="615" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="660" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="358" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="658" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="357" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="657" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="356" priority="611" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="656" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="355" priority="610" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="655" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="354" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="641" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="642" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="598" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="643" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="351" priority="594" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="639" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="595" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="640" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="349" priority="592" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="637" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="593" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="638" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="347" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="636" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="346" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="635" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="345" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="634" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="344" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="633" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="343" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="608" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="609" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="610" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="340" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="606" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="607" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="338" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="604" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="605" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="336" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="603" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="335" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="602" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="334" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="601" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="333" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="600" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="332" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="597" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="598" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="599" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="329" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="595" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="596" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="327" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="593" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="594" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="325" priority="547" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="592" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="324" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="591" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="323" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="590" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="322" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="589" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="321" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="575" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="576" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="577" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="318" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="573" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="574" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="316" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="571" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="572" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="314" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="570" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="313" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="569" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="312" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="568" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="311" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="567" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="310" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="564" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="565" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="566" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="307" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="562" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="563" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="305" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="560" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="561" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="303" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="559" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="302" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="558" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="301" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="557" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="300" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="556" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="299" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="531" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="532" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="533" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="296" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="529" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="530" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="294" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="527" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="528" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="292" priority="481" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="526" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="291" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="525" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="290" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="524" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="289" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="520" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="521" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="522" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="286" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="518" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="519" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="284" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="516" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="517" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="282" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="515" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="281" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="514" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="280" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="513" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="279" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="512" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="278" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="498" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="499" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="500" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="275" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="496" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="497" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="273" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="494" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="495" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="271" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="493" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="270" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="492" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="269" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="491" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="268" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="490" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="267" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="487" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="488" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="489" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="264" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="485" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="486" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="262" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="483" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="484" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="260" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="482" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="259" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="481" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="258" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="480" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="257" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="479" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="256" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="476" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="477" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="478" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="253" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="474" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="475" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="251" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="472" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="473" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="249" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="471" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="248" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="470" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="247" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="469" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="246" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="468" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3">
-    <cfRule type="cellIs" dxfId="245" priority="420" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B43:M43 B17:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3 B21:E42 C31:J42 B47:M49 B44:H46 L44:M46 B14:I16">
+    <cfRule type="cellIs" dxfId="283" priority="465" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="466" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="467" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3">
-    <cfRule type="cellIs" dxfId="242" priority="418" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B43:M43 B17:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3 B21:E42 C31:J42 B47:M49 B44:H46 L44:M46 B14:I16">
+    <cfRule type="cellIs" dxfId="280" priority="463" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="464" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3">
-    <cfRule type="cellIs" dxfId="240" priority="416" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B43:M43 B17:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3 B21:E42 C31:J42 B47:M49 B44:H46 L44:M46 B14:I16">
+    <cfRule type="cellIs" dxfId="278" priority="461" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="462" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3">
-    <cfRule type="cellIs" dxfId="238" priority="415" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B43:M43 B17:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3 B21:E42 C31:J42 B47:M49 B44:H46 L44:M46 B14:I16">
+    <cfRule type="cellIs" dxfId="276" priority="460" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3">
-    <cfRule type="cellIs" dxfId="237" priority="414" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B43:M43 B17:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3 B21:E42 C31:J42 B47:M49 B44:H46 L44:M46 B14:I16">
+    <cfRule type="cellIs" dxfId="275" priority="459" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3">
-    <cfRule type="cellIs" dxfId="236" priority="413" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B43:M43 B17:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3 B21:E42 C31:J42 B47:M49 B44:H46 L44:M46 B14:I16">
+    <cfRule type="cellIs" dxfId="274" priority="458" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B21:E31 B43:M49 B14:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3">
-    <cfRule type="cellIs" dxfId="235" priority="412" operator="equal">
+  <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B43:M43 B17:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3 B21:E42 C31:J42 B47:M49 B44:H46 L44:M46 B14:I16">
+    <cfRule type="cellIs" dxfId="273" priority="457" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="234" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="443" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="444" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="445" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="231" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="441" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="442" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="229" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="439" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="440" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="227" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="438" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="226" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="437" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="225" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="436" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="224" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="435" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="223" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="432" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="433" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="434" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="220" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="430" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="431" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="218" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="428" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="429" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="216" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="427" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="215" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="426" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="214" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="425" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="213" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="424" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN18:AX20 U40:X41 U42:AB42 A21:N26 AR25:AX27 H9:J9 AB39:AB41 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD21:AX24 AD10:AO17 AC10:AC50 A27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 A8:J8 K8:V9 A9:G11 A12:V13 M14:S15 M16:N20 A43:AB50 A14:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AX30 A32:A42 K39:X39 K40:Q42 K33:V33 K34:T36 K37:AB38 AD31:AN37 AD41:AN41 AX31:AX41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AX8:AX17 AP9:AW17 X8:AW8 AD42:AX50 V31:V32 V28:W29 P29:U32 K32:U32 A28:U31 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3">
-    <cfRule type="cellIs" dxfId="212" priority="375" operator="equal">
+  <conditionalFormatting sqref="AN18:AX20 U40:X41 U42:AB42 A21:N26 AR25:AX27 H9:J9 AB39:AB41 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD10:AO17 AC10:AC50 A27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 A8:J8 K8:V9 A9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AX30 K39:X39 K40:Q42 K33:V33 K34:T36 K37:AB38 AD31:AN37 AD41:AN41 AX31:AX41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AX8:AX17 AP9:AW17 X8:AW8 AD42:AX50 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A31:U31 A32:J42 A28:I30 M28:U30 A47:AB50 A44:H46 L44:AB46 A14:I16 AD21:AX24">
+    <cfRule type="cellIs" dxfId="250" priority="420" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="421" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="422" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="423" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="208" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="372" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="373" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="205" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="370" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="371" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="203" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="368" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="369" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="201" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="367" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="200" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="366" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="199" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="365" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="198" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="364" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="197" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="360" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="361" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="362" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="363" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="193" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="357" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="358" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="359" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="190" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="355" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="356" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="188" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="353" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="354" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="186" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="352" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="185" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="351" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="184" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="350" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="183" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="349" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="182" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="345" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="346" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="347" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="348" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="178" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="342" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="343" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="344" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="175" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="340" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="341" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="173" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="338" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="339" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="171" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="337" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="170" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="336" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="169" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="335" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="168" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="334" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="167" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="330" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="331" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="332" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="333" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="163" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="312" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="313" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="160" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="310" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="311" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="158" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="308" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="309" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="156" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="307" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="155" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="306" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="154" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="305" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="153" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="304" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="152" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="300" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="301" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="302" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="303" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="148" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="267" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="268" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="269" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="145" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="265" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="266" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="143" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="263" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="264" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="141" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="262" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="140" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="261" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="139" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="260" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="138" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="259" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="137" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="255" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="256" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="257" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="258" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="133" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="252" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="253" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="254" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="130" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="250" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="251" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="128" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="248" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="249" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="126" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="247" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="125" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="246" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="124" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="245" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="123" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="244" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="122" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="240" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="241" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="242" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="243" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="118" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="162" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="163" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="164" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="115" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="160" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="161" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="113" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="158" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="159" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="111" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="157" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="156" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="155" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="154" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="107" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="150" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="151" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="152" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="153" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="103" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="147" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="148" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="149" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="100" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="145" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="146" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="143" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="144" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="96" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="142" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="141" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="140" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="139" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="92" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="135" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="136" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="137" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="138" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="88" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="132" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="133" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="85" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="130" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="131" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="128" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="129" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="127" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="126" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="125" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="124" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="77" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="120" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="121" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="122" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="123" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:J42">
-    <cfRule type="cellIs" dxfId="73" priority="72" operator="equal">
+  <conditionalFormatting sqref="AO31:AW41">
+    <cfRule type="cellIs" dxfId="111" priority="80" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="81" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:J42">
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+  <conditionalFormatting sqref="AO31:AW41">
+    <cfRule type="cellIs" dxfId="108" priority="78" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="79" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:J42">
-    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
+  <conditionalFormatting sqref="AO31:AW41">
+    <cfRule type="cellIs" dxfId="106" priority="76" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="77" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:J42">
-    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
+  <conditionalFormatting sqref="AO31:AW41">
+    <cfRule type="cellIs" dxfId="104" priority="75" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:J42">
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
+  <conditionalFormatting sqref="AO31:AW41">
+    <cfRule type="cellIs" dxfId="103" priority="74" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:J42">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+  <conditionalFormatting sqref="AO31:AW41">
+    <cfRule type="cellIs" dxfId="102" priority="73" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:J42">
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
+  <conditionalFormatting sqref="AO31:AW41">
+    <cfRule type="cellIs" dxfId="101" priority="72" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
-    <cfRule type="cellIs" dxfId="62" priority="50" operator="equal">
+  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
+    <cfRule type="cellIs" dxfId="100" priority="58" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="59" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
-    <cfRule type="cellIs" dxfId="59" priority="48" operator="equal">
+  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
+    <cfRule type="cellIs" dxfId="97" priority="56" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="57" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
-    <cfRule type="cellIs" dxfId="57" priority="46" operator="equal">
+  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
+    <cfRule type="cellIs" dxfId="95" priority="54" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="55" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
-    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
+  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
+    <cfRule type="cellIs" dxfId="93" priority="53" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
-    <cfRule type="cellIs" dxfId="54" priority="44" operator="equal">
+  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
+    <cfRule type="cellIs" dxfId="92" priority="52" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
-    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
+  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
+    <cfRule type="cellIs" dxfId="91" priority="51" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37:J37 I36:J36 B42:J42 B32:B41 C32:J32">
-    <cfRule type="cellIs" dxfId="52" priority="42" operator="equal">
+  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
+    <cfRule type="cellIs" dxfId="90" priority="50" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
-    <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
+  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
+    <cfRule type="cellIs" dxfId="89" priority="69" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="70" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="71" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
-    <cfRule type="cellIs" dxfId="48" priority="59" operator="equal">
+  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
+    <cfRule type="cellIs" dxfId="86" priority="67" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="68" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
-    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
+  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
+    <cfRule type="cellIs" dxfId="84" priority="65" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="66" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
-    <cfRule type="cellIs" dxfId="44" priority="56" operator="equal">
+  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
+    <cfRule type="cellIs" dxfId="82" priority="64" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
-    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
+  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
+    <cfRule type="cellIs" dxfId="81" priority="63" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
-    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
+  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
+    <cfRule type="cellIs" dxfId="80" priority="62" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:J35 C32:G32 F37:G37 F42:G42">
-    <cfRule type="cellIs" dxfId="41" priority="53" operator="equal">
+  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
+    <cfRule type="cellIs" dxfId="79" priority="61" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:J42">
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+  <conditionalFormatting sqref="AO31:AW41">
+    <cfRule type="cellIs" dxfId="78" priority="46" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="47" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="48" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="49" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
+  <conditionalFormatting sqref="J28:L30">
+    <cfRule type="cellIs" dxfId="74" priority="43" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="44" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+  <conditionalFormatting sqref="J28:L30">
+    <cfRule type="cellIs" dxfId="71" priority="41" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="42" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+  <conditionalFormatting sqref="J28:L30">
+    <cfRule type="cellIs" dxfId="69" priority="39" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="40" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+  <conditionalFormatting sqref="J28:L30">
+    <cfRule type="cellIs" dxfId="67" priority="38" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+  <conditionalFormatting sqref="J28:L30">
+    <cfRule type="cellIs" dxfId="66" priority="37" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+  <conditionalFormatting sqref="J28:L30">
+    <cfRule type="cellIs" dxfId="65" priority="36" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+  <conditionalFormatting sqref="J28:L30">
+    <cfRule type="cellIs" dxfId="64" priority="35" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+  <conditionalFormatting sqref="J28:L30">
+    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="33" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="34" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:K46">
+    <cfRule type="cellIs" dxfId="59" priority="28" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+  <conditionalFormatting sqref="I44:K46">
+    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+  <conditionalFormatting sqref="I44:K46">
+    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="25" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+  <conditionalFormatting sqref="I44:K46">
+    <cfRule type="cellIs" dxfId="52" priority="23" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+  <conditionalFormatting sqref="I44:K46">
+    <cfRule type="cellIs" dxfId="51" priority="22" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+  <conditionalFormatting sqref="I44:K46">
+    <cfRule type="cellIs" dxfId="50" priority="21" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+  <conditionalFormatting sqref="I44:K46">
+    <cfRule type="cellIs" dxfId="49" priority="20" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
+  <conditionalFormatting sqref="I44:K46">
+    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="17" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="18" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/SunLeo.xlsx
+++ b/Star Regein/Star Regein/SunLeo.xlsx
@@ -84,7 +84,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="526">
+  <dxfs count="459">
     <dxf>
       <fill>
         <patternFill>
@@ -338,520 +338,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5045,16 +4531,16 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+      <selection activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="2" width="2.25" customWidth="1"/>
     <col min="6" max="7" width="2.625" customWidth="1"/>
     <col min="8" max="8" width="2.125" customWidth="1"/>
     <col min="20" max="20" width="2.5" customWidth="1"/>
-    <col min="23" max="38" width="2.5" customWidth="1"/>
-    <col min="41" max="41" width="2.625" customWidth="1"/>
+    <col min="23" max="42" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.15">
@@ -5235,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -5378,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -5393,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
         <v>5</v>
@@ -5405,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
         <v>0</v>
@@ -5450,10 +4936,10 @@
         <v>0</v>
       </c>
       <c r="AD3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="1">
         <v>0</v>
@@ -5474,13 +4960,13 @@
         <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>5</v>
       </c>
       <c r="AN3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>5</v>
@@ -5539,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -5548,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -5629,13 +5115,13 @@
         <v>5</v>
       </c>
       <c r="AM4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="1">
         <v>5</v>
       </c>
       <c r="AO4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="1">
         <v>1</v>
@@ -5682,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -5712,10 +5198,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -5751,10 +5237,10 @@
         <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -5766,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI5" s="1">
         <v>0</v>
@@ -5778,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -5822,13 +5308,13 @@
         <v>99</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -5837,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -5912,31 +5398,31 @@
         <v>11</v>
       </c>
       <c r="AF6" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="1">
         <v>11</v>
       </c>
       <c r="AH6" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="1">
         <v>11</v>
       </c>
       <c r="AJ6" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1">
         <v>11</v>
       </c>
       <c r="AL6" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>11</v>
       </c>
       <c r="AN6" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>11</v>
@@ -5977,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -6016,13 +5502,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
         <v>1</v>
@@ -6037,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
         <v>1</v>
@@ -6052,19 +5538,19 @@
         <v>1</v>
       </c>
       <c r="AB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1">
         <v>1</v>
       </c>
       <c r="AD7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG7" s="1">
         <v>0</v>
@@ -6076,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
@@ -6088,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="AN7" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO7" s="1">
         <v>0</v>
@@ -6126,13 +5612,13 @@
         <v>99</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -6174,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -6204,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="1">
         <v>0</v>
@@ -6928,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
@@ -6946,13 +6432,13 @@
         <v>0</v>
       </c>
       <c r="V13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
         <v>0</v>
@@ -7190,7 +6676,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -7253,10 +6739,10 @@
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -7310,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="1">
         <v>0</v>
@@ -7345,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -7402,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1">
         <v>1</v>
@@ -7435,7 +6921,7 @@
         <v>10</v>
       </c>
       <c r="AG16" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="1">
         <v>0</v>
@@ -7500,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -7554,10 +7040,10 @@
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="1">
         <v>0</v>
@@ -7649,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -7784,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="AV18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="1">
         <v>0</v>
@@ -7798,7 +7284,7 @@
         <v>99</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -7933,13 +7419,13 @@
         <v>0</v>
       </c>
       <c r="AU19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV19" s="1">
         <v>0</v>
       </c>
       <c r="AW19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX19">
         <v>99</v>
@@ -7953,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -8076,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20" s="1">
         <v>0</v>
@@ -8088,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="AV20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="1">
         <v>0</v>
@@ -8108,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -8257,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -8266,10 +7752,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -8365,19 +7851,19 @@
         <v>0</v>
       </c>
       <c r="AM22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN22" s="1">
         <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="1">
         <v>0</v>
@@ -8406,7 +7892,7 @@
         <v>99</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -8421,7 +7907,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -8466,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
@@ -8523,13 +8009,13 @@
         <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="1">
         <v>0</v>
@@ -8615,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="1">
         <v>0</v>
@@ -8675,13 +8161,13 @@
         <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="1">
         <v>0</v>
@@ -8770,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1">
         <v>0</v>
@@ -9095,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD27" s="1">
         <v>0</v>
@@ -9277,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN28" s="1">
         <v>0</v>
@@ -9551,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="1">
         <v>0</v>
@@ -9709,13 +9195,13 @@
         <v>0</v>
       </c>
       <c r="AE31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="1">
         <v>0</v>
       </c>
       <c r="AG31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="1">
         <v>0</v>
@@ -9742,25 +9228,25 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="1">
         <v>0</v>
       </c>
       <c r="AR31" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="1">
         <v>0</v>
       </c>
       <c r="AT31" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="1">
         <v>0</v>
       </c>
       <c r="AV31" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="1">
         <v>0</v>
@@ -9855,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="1">
         <v>0</v>
@@ -9891,31 +9377,31 @@
         <v>0</v>
       </c>
       <c r="AO32" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="1">
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AR32" s="1">
         <v>0</v>
       </c>
       <c r="AS32" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="1">
         <v>0</v>
       </c>
       <c r="AU32" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AV32" s="1">
         <v>0</v>
       </c>
       <c r="AW32" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX32">
         <v>99</v>
@@ -10043,28 +9529,28 @@
         <v>0</v>
       </c>
       <c r="AO33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP33" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="1">
         <v>0</v>
       </c>
       <c r="AR33" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="1">
         <v>0</v>
       </c>
       <c r="AT33" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="1">
         <v>0</v>
       </c>
       <c r="AV33" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW33" s="1">
         <v>0</v>
@@ -10195,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="AO34" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="1">
         <v>0</v>
@@ -10219,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="AW34" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX34">
         <v>99</v>
@@ -10311,7 +9797,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="1">
         <v>0</v>
@@ -10350,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="1">
         <v>0</v>
@@ -10359,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -10368,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AV35" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW35" s="1">
         <v>0</v>
@@ -10391,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -10478,7 +9964,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI36" s="1">
         <v>0</v>
@@ -10499,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="AO36" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AP36" s="1">
         <v>0</v>
@@ -10523,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="AW36" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX36">
         <v>99</v>
@@ -10546,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -10654,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="1">
         <v>0</v>
@@ -10663,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -10672,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="AV37" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW37" s="1">
         <v>0</v>
@@ -10686,7 +10172,7 @@
         <v>99</v>
       </c>
       <c r="B38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -10752,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
@@ -10782,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="AH38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="1">
         <v>0</v>
@@ -10803,13 +10289,13 @@
         <v>0</v>
       </c>
       <c r="AO38" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="1">
         <v>0</v>
       </c>
       <c r="AQ38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR38" s="1">
         <v>0</v>
@@ -10818,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="AT38" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="1">
         <v>0</v>
@@ -10827,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="AW38" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX38">
         <v>99</v>
@@ -10838,13 +10324,13 @@
         <v>99</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -10901,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="1">
         <v>0</v>
@@ -10937,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="AI39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ39" s="1">
         <v>0</v>
@@ -10958,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="AP39" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="1">
         <v>0</v>
@@ -10976,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="AV39" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW39" s="1">
         <v>0</v>
@@ -10990,7 +10476,7 @@
         <v>99</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -11050,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="1">
         <v>0</v>
@@ -11086,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AH40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40" s="1">
         <v>0</v>
@@ -11107,31 +10593,31 @@
         <v>0</v>
       </c>
       <c r="AO40" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="1">
         <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR40" s="1">
         <v>0</v>
       </c>
       <c r="AS40" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AU40" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV40" s="1">
         <v>0</v>
       </c>
       <c r="AW40" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX40">
         <v>99</v>
@@ -11142,10 +10628,10 @@
         <v>99</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -11205,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="1">
         <v>0</v>
@@ -11262,25 +10748,25 @@
         <v>0</v>
       </c>
       <c r="AP41" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="1">
         <v>0</v>
       </c>
       <c r="AR41" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="1">
         <v>0</v>
       </c>
       <c r="AT41" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="1">
         <v>0</v>
       </c>
       <c r="AV41" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW41" s="1">
         <v>0</v>
@@ -11303,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -11396,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="1">
         <v>0</v>
@@ -11452,10 +10938,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -11891,7 +11377,7 @@
         <v>0</v>
       </c>
       <c r="AW45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX45">
         <v>99</v>
@@ -11902,7 +11388,7 @@
         <v>99</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -12040,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="AV46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="1">
         <v>0</v>
@@ -12057,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -12195,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47">
         <v>99</v>
@@ -12206,7 +11692,7 @@
         <v>99</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -12338,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="1">
         <v>0</v>
@@ -12361,13 +11847,13 @@
         <v>0</v>
       </c>
       <c r="C49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -12487,13 +11973,13 @@
         <v>0</v>
       </c>
       <c r="AS49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="1">
         <v>0</v>
       </c>
       <c r="AU49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="1">
         <v>0</v>
@@ -12659,2079 +12145,1924 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24">
-    <cfRule type="cellIs" dxfId="525" priority="784" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24 AD28:AW30 AO31:AW41 AD38:AK40">
+    <cfRule type="cellIs" dxfId="458" priority="784" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="785" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="785" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="786" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="786" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24">
-    <cfRule type="cellIs" dxfId="522" priority="782" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24 AD28:AW30 AO31:AW41 AD38:AK40">
+    <cfRule type="cellIs" dxfId="455" priority="782" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="783" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="783" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24">
-    <cfRule type="cellIs" dxfId="520" priority="780" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24 AD28:AW30 AO31:AW41 AD38:AK40">
+    <cfRule type="cellIs" dxfId="453" priority="780" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="781" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="781" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24">
-    <cfRule type="cellIs" dxfId="518" priority="779" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24 AD28:AW30 AO31:AW41 AD38:AK40">
+    <cfRule type="cellIs" dxfId="451" priority="779" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24">
-    <cfRule type="cellIs" dxfId="517" priority="778" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24 AD28:AW30 AO31:AW41 AD38:AK40">
+    <cfRule type="cellIs" dxfId="450" priority="778" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24">
-    <cfRule type="cellIs" dxfId="516" priority="777" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24 AD28:AW30 AO31:AW41 AD38:AK40">
+    <cfRule type="cellIs" dxfId="449" priority="777" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AW30 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24">
-    <cfRule type="cellIs" dxfId="515" priority="776" operator="equal">
+  <conditionalFormatting sqref="A46:B48 A49:H49 A44:H45 AX47:AX49 A21:B23 AX19:AX24 AS18:AX18 AX26:AX42 AR45:AX46 A50:AB50 A30:H31 A27:C29 A8:C10 A24:N26 AN18:AW20 U40:X41 U42:AB42 AR25:AX25 C21:N26 AR25:AW27 B21:M27 B9:D10 A11:D11 AB39:AB41 K37:AB38 V30:AB30 AD18:AJ20 AD25:AN27 AD43:AX44 AD50:AX50 AC10:AC50 C27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 H9:J9 B8:J8 K8:V9 E9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 K39:X39 K40:Q42 K38:M42 K33:V33 K34:T36 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AD10:AO17 AX8:AX17 AP9:AW17 X8:AW8 AD42:AW49 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A32:J42 B31:U31 B28:I30 M28:U30 B47:AB49 B44:H46 L44:AB46 A14:I16 AD21:AW24 AD28:AW30 AO31:AW41 AD38:AK40">
+    <cfRule type="cellIs" dxfId="448" priority="776" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="514" priority="674" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="674" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="675" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="676" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="676" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="511" priority="672" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="672" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="673" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="673" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="509" priority="670" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="670" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="671" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="671" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="507" priority="669" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="669" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="506" priority="668" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="668" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="505" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="667" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM48:AO49">
-    <cfRule type="cellIs" dxfId="504" priority="666" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="666" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="503" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="523" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="502" priority="773" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="773" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="774" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="774" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="775" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="775" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="499" priority="771" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="771" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="772" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="772" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="497" priority="769" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="769" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="770" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="770" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="495" priority="768" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="768" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="494" priority="767" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="767" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="493" priority="766" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="766" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:E48">
-    <cfRule type="cellIs" dxfId="492" priority="765" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="765" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="491" priority="762" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="762" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="763" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="763" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="764" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="764" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="488" priority="760" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="760" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="761" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="761" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="486" priority="758" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="758" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="759" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="759" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="484" priority="757" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="757" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="483" priority="756" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="756" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="482" priority="755" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="755" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:K49">
-    <cfRule type="cellIs" dxfId="481" priority="754" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="754" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="480" priority="751" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="751" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="752" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="752" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="753" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="753" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="477" priority="749" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="749" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="750" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="750" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="475" priority="747" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="747" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="748" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="748" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="473" priority="746" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="746" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="472" priority="745" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="745" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="471" priority="744" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="744" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:X46">
-    <cfRule type="cellIs" dxfId="470" priority="743" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="743" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="469" priority="740" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="740" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="741" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="741" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="742" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="742" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="466" priority="738" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="738" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="739" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="739" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="464" priority="736" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="736" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="737" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="737" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="462" priority="735" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="735" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="461" priority="734" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="734" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="460" priority="733" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="733" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:X41">
-    <cfRule type="cellIs" dxfId="459" priority="732" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="732" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="458" priority="729" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="729" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="730" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="730" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="731" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="731" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="455" priority="727" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="727" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="728" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="728" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="453" priority="725" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="725" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="726" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="726" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="451" priority="724" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="724" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="450" priority="723" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="723" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="449" priority="722" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="722" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:Z26">
-    <cfRule type="cellIs" dxfId="448" priority="721" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="721" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="447" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="630" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="631" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="631" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="632" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="632" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="444" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="628" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="629" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="442" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="626" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="627" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="440" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="625" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="439" priority="624" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="624" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="438" priority="623" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="623" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AB20 AD18:AD20">
-    <cfRule type="cellIs" dxfId="437" priority="622" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="622" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="436" priority="619" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="619" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="620" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="621" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="621" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="433" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="617" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="618" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="618" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="431" priority="615" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="615" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="616" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="429" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="614" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="428" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="613" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="427" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="612" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AH19">
-    <cfRule type="cellIs" dxfId="426" priority="611" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="611" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="425" priority="696" operator="equal">
+  <conditionalFormatting sqref="AD41:AF42 AD40:AE40">
+    <cfRule type="cellIs" dxfId="358" priority="696" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="697" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="697" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="698" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="698" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="422" priority="694" operator="equal">
+  <conditionalFormatting sqref="AD41:AF42 AD40:AE40">
+    <cfRule type="cellIs" dxfId="355" priority="694" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="695" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="695" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="420" priority="692" operator="equal">
+  <conditionalFormatting sqref="AD41:AF42 AD40:AE40">
+    <cfRule type="cellIs" dxfId="353" priority="692" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="693" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="693" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="418" priority="691" operator="equal">
+  <conditionalFormatting sqref="AD41:AF42 AD40:AE40">
+    <cfRule type="cellIs" dxfId="351" priority="691" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="417" priority="690" operator="equal">
+  <conditionalFormatting sqref="AD41:AF42 AD40:AE40">
+    <cfRule type="cellIs" dxfId="350" priority="690" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="416" priority="689" operator="equal">
+  <conditionalFormatting sqref="AD41:AF42 AD40:AE40">
+    <cfRule type="cellIs" dxfId="349" priority="689" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AF42">
-    <cfRule type="cellIs" dxfId="415" priority="688" operator="equal">
+  <conditionalFormatting sqref="AD41:AF42 AD40:AE40">
+    <cfRule type="cellIs" dxfId="348" priority="688" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="414" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="685" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="686" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="686" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="687" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="411" priority="683" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="683" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="684" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="684" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="409" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="681" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="682" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="407" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="680" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="406" priority="679" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="679" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="405" priority="678" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="678" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG48:AI48">
-    <cfRule type="cellIs" dxfId="404" priority="677" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="677" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="403" priority="663" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="663" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="664" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="664" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="665" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="665" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="400" priority="661" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="661" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="662" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="662" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="398" priority="659" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="659" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="660" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="660" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="396" priority="658" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="658" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="395" priority="657" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="657" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="394" priority="656" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="656" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AW49">
-    <cfRule type="cellIs" dxfId="393" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="655" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="392" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="641" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="642" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="643" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="389" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="639" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="640" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="640" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="387" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="637" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="638" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="385" priority="636" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="636" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="384" priority="635" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="635" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="383" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="634" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E23">
-    <cfRule type="cellIs" dxfId="382" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="633" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="381" priority="608" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="608" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="609" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="609" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="610" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="610" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="378" priority="606" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="606" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="607" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="376" priority="604" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="604" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="605" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="605" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="374" priority="603" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="603" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="373" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="602" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="372" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="601" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16:AM17">
-    <cfRule type="cellIs" dxfId="371" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="600" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="370" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="597" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="598" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="598" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="599" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="599" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="367" priority="595" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="595" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="596" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="365" priority="593" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="593" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="594" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="594" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="363" priority="592" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="592" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="362" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="591" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="361" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="590" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AR19">
-    <cfRule type="cellIs" dxfId="360" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="589" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="359" priority="575" operator="equal">
+  <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT41">
+    <cfRule type="cellIs" dxfId="292" priority="575" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="576" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="577" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="356" priority="573" operator="equal">
+  <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT41">
+    <cfRule type="cellIs" dxfId="289" priority="573" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="574" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="354" priority="571" operator="equal">
+  <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT41">
+    <cfRule type="cellIs" dxfId="287" priority="571" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="572" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="352" priority="570" operator="equal">
+  <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT41">
+    <cfRule type="cellIs" dxfId="285" priority="570" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="351" priority="569" operator="equal">
+  <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT41">
+    <cfRule type="cellIs" dxfId="284" priority="569" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="350" priority="568" operator="equal">
+  <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT41">
+    <cfRule type="cellIs" dxfId="283" priority="568" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT30">
-    <cfRule type="cellIs" dxfId="349" priority="567" operator="equal">
+  <conditionalFormatting sqref="AS42:AW42 AP28:AP29 AS27:AT29 AR26:AT26 AP30:AT41">
+    <cfRule type="cellIs" dxfId="282" priority="567" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="348" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="564" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="565" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="566" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="345" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="562" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="563" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="343" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="560" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="561" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="341" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="559" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="340" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="558" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="339" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="557" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT27:AT29">
-    <cfRule type="cellIs" dxfId="338" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="556" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="337" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="531" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="532" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="533" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="533" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="334" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="529" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="530" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="332" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="527" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="528" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="330" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="526" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="329" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="525" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AS29 AR27:AS27">
-    <cfRule type="cellIs" dxfId="328" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="524" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="327" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="520" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="521" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="522" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="324" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="518" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="519" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="322" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="516" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="517" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="320" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="515" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="319" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="514" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="318" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="513" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
-    <cfRule type="cellIs" dxfId="317" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="512" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="316" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="498" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="499" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="500" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="500" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="313" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="496" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="497" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="497" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="311" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="494" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="495" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="495" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="309" priority="493" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="493" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="308" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="492" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="307" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="491" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8 H10:U10 AB10 D9:D10 E9:F11">
-    <cfRule type="cellIs" dxfId="306" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="490" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="305" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="487" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="488" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="489" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="489" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="302" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="485" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="486" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="300" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="483" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="484" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="298" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="482" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="297" priority="481" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="481" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="296" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="480" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10 I8:J9">
-    <cfRule type="cellIs" dxfId="295" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="479" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="294" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="476" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="477" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="478" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="291" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="474" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="475" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="289" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="472" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="473" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="287" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="471" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="286" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="470" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="285" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="469" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:R9 R5 P2:P6">
-    <cfRule type="cellIs" dxfId="284" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="468" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B43:M43 B17:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3 B21:E42 C31:J42 B47:M49 B44:H46 L44:M46 B14:I16">
-    <cfRule type="cellIs" dxfId="283" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="465" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="466" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="467" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B43:M43 B17:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3 B21:E42 C31:J42 B47:M49 B44:H46 L44:M46 B14:I16">
-    <cfRule type="cellIs" dxfId="280" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="463" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="464" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B43:M43 B17:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3 B21:E42 C31:J42 B47:M49 B44:H46 L44:M46 B14:I16">
-    <cfRule type="cellIs" dxfId="278" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="461" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="462" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B43:M43 B17:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3 B21:E42 C31:J42 B47:M49 B44:H46 L44:M46 B14:I16">
-    <cfRule type="cellIs" dxfId="276" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="460" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B43:M43 B17:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3 B21:E42 C31:J42 B47:M49 B44:H46 L44:M46 B14:I16">
-    <cfRule type="cellIs" dxfId="275" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="459" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B43:M43 B17:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3 B21:E42 C31:J42 B47:M49 B44:H46 L44:M46 B14:I16">
-    <cfRule type="cellIs" dxfId="274" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="458" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:AB25 P27:V27 W26:Y26 N10:P15 P33:V33 M18:M20 M16:N17 B10:D11 AD25:AE25 W30:Y30 W27:W29 H10:V11 B12:V13 T14:V17 X10:AB17 M14:S15 T25:V26 N16:S26 B43:M43 B17:L20 N2:O2 O3:O4 Q2:Q4 K39:M42 N27:P49 Q28:V32 L3:N3 B21:E42 C31:J42 B47:M49 B44:H46 L44:M46 B14:I16">
-    <cfRule type="cellIs" dxfId="273" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="457" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="272" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="443" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="444" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="445" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="269" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="441" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="442" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="267" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="439" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="440" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="265" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="438" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="264" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="437" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="263" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="436" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="cellIs" dxfId="262" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="435" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="261" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="432" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="433" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="434" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="258" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="430" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="431" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="256" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="428" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="429" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="254" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="427" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="253" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="426" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="252" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="425" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:V33 V31:V32">
-    <cfRule type="cellIs" dxfId="251" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="424" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN18:AX20 U40:X41 U42:AB42 A21:N26 AR25:AX27 H9:J9 AB39:AB41 V30:AB30 AD38:AK40 AD18:AJ20 AD25:AN27 AD10:AO17 AC10:AC50 A27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 A8:J8 K8:V9 A9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 AD28:AX30 K39:X39 K40:Q42 K33:V33 K34:T36 K37:AB38 AD31:AN37 AD41:AN41 AX31:AX41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AX8:AX17 AP9:AW17 X8:AW8 AD42:AX50 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A31:U31 A32:J42 A28:I30 M28:U30 A47:AB50 A44:H46 L44:AB46 A14:I16 AD21:AX24">
-    <cfRule type="cellIs" dxfId="250" priority="420" operator="equal">
+  <conditionalFormatting sqref="AN18:AX20 U40:X41 U42:AB42 A21:N26 AR25:AX27 H9:J9 AB39:AB41 V30:AB30 AD18:AJ20 AD25:AN27 AD10:AO17 AC10:AC50 A27:W27 AA27:AB29 Z31:AB33 X34:AB36 H10:V11 T14:V17 X10:AB20 W8:W17 T21:AB26 T18:T20 O16:S26 A8:J8 K8:V9 A9:G11 A12:V13 M14:S15 M16:N20 A43:AB43 A17:L20 A1:AX1 A7:AF7 Q6:Y6 Q2:U5 V3:Y5 AA5:AF6 Z3:Z6 K39:X39 K40:Q42 K33:V33 K34:T36 K37:AB38 AD31:AN37 AD41:AN41 AX2:AX4 V2:AW2 X9:AO9 AG5:AX7 AX8:AX17 AP9:AW17 X8:AW8 AD42:AX50 V31:V32 V28:W29 P29:U32 K32:U32 A2:P6 AA3:AG4 AL3:AW4 AH4:AJ4 AH3:AK3 A31:U31 A32:J42 A28:I30 M28:U30 A47:AB50 A44:H46 L44:AB46 A14:I16 AD21:AX24 AD28:AX30 AO31:AX41 AD38:AK40">
+    <cfRule type="cellIs" dxfId="183" priority="420" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="421" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="422" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="423" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="246" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="372" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="373" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="243" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="370" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="371" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="241" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="368" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="369" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="239" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="367" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="238" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="366" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="237" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="365" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="236" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="364" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK18:AM20">
-    <cfRule type="cellIs" dxfId="235" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="360" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="361" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="362" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="363" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="231" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="357" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="358" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="359" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="228" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="355" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="356" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="226" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="353" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="354" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="224" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="352" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="223" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="351" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="222" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="350" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="221" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="349" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:AA41">
-    <cfRule type="cellIs" dxfId="220" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="345" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="346" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="347" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="348" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="216" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="342" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="343" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="344" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="213" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="340" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="341" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="211" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="338" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="339" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="209" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="337" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="208" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="336" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="207" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="335" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="206" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="334" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:T42">
-    <cfRule type="cellIs" dxfId="205" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="330" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="331" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="332" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="333" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="201" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="312" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="313" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="198" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="310" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="311" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="196" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="308" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="309" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="194" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="307" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="193" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="306" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="192" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="305" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="191" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="304" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25:AQ27">
-    <cfRule type="cellIs" dxfId="190" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="300" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="301" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="302" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="303" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="186" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="267" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="268" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="269" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="183" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="265" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="266" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="181" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="263" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="264" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="179" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="262" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="178" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="261" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="177" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="260" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="176" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="259" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18:W20">
-    <cfRule type="cellIs" dxfId="175" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="255" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="256" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="257" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="258" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="171" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="252" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="253" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="254" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="168" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="250" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="251" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="166" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="248" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="249" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="164" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="247" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="163" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="246" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="162" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="245" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="161" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="244" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AN40">
-    <cfRule type="cellIs" dxfId="160" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="240" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="241" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="242" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="243" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="156" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="162" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="163" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="164" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="153" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="160" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="161" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="151" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="158" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="159" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="149" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="157" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="148" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="156" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="147" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="155" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="146" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="154" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:Z29">
-    <cfRule type="cellIs" dxfId="145" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="150" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="151" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="152" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="153" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="141" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="147" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="148" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="149" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="138" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="145" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="146" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="136" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="143" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="144" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="134" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="142" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="133" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="141" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="132" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="140" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="131" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="139" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y33">
-    <cfRule type="cellIs" dxfId="130" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="135" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="136" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="137" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="138" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="126" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="132" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="133" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="123" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="130" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="131" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="121" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="128" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="129" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="119" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="127" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="118" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="126" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="117" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="125" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="116" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="124" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:W36">
-    <cfRule type="cellIs" dxfId="115" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="120" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="121" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="122" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="123" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="111" priority="80" operator="equal">
+  <conditionalFormatting sqref="J28:L30">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="108" priority="78" operator="equal">
+  <conditionalFormatting sqref="J28:L30">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="106" priority="76" operator="equal">
+  <conditionalFormatting sqref="J28:L30">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="104" priority="75" operator="equal">
+  <conditionalFormatting sqref="J28:L30">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="103" priority="74" operator="equal">
+  <conditionalFormatting sqref="J28:L30">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="102" priority="73" operator="equal">
+  <conditionalFormatting sqref="J28:L30">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="101" priority="72" operator="equal">
+  <conditionalFormatting sqref="J28:L30">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="100" priority="58" operator="equal">
+  <conditionalFormatting sqref="J28:L30">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:K46">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="97" priority="56" operator="equal">
+  <conditionalFormatting sqref="I44:K46">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="95" priority="54" operator="equal">
+  <conditionalFormatting sqref="I44:K46">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="93" priority="53" operator="equal">
+  <conditionalFormatting sqref="I44:K46">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="92" priority="52" operator="equal">
+  <conditionalFormatting sqref="I44:K46">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="91" priority="51" operator="equal">
+  <conditionalFormatting sqref="I44:K46">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU36:AW36 AV35:AW35 AO41:AW41 AO31:AO40 AP31:AW31">
-    <cfRule type="cellIs" dxfId="90" priority="50" operator="equal">
+  <conditionalFormatting sqref="I44:K46">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="89" priority="69" operator="equal">
+  <conditionalFormatting sqref="I44:K46">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="86" priority="67" operator="equal">
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="84" priority="65" operator="equal">
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="82" priority="64" operator="equal">
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="81" priority="63" operator="equal">
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="80" priority="62" operator="equal">
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS32:AW34 AP31:AT31 AS36:AT36 AS41:AT41 AQ34:AR34 AQ35:AS36">
-    <cfRule type="cellIs" dxfId="79" priority="61" operator="equal">
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO31:AW41">
-    <cfRule type="cellIs" dxfId="78" priority="46" operator="equal">
+  <conditionalFormatting sqref="J14:L16">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="49" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:L30">
-    <cfRule type="cellIs" dxfId="74" priority="43" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="44" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:L30">
-    <cfRule type="cellIs" dxfId="71" priority="41" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="42" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:L30">
-    <cfRule type="cellIs" dxfId="69" priority="39" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="40" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:L30">
-    <cfRule type="cellIs" dxfId="67" priority="38" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:L30">
-    <cfRule type="cellIs" dxfId="66" priority="37" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:L30">
-    <cfRule type="cellIs" dxfId="65" priority="36" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:L30">
-    <cfRule type="cellIs" dxfId="64" priority="35" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:L30">
-    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="33" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="34" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:K46">
-    <cfRule type="cellIs" dxfId="59" priority="28" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="29" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:K46">
-    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:K46">
-    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="25" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:K46">
-    <cfRule type="cellIs" dxfId="52" priority="23" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:K46">
-    <cfRule type="cellIs" dxfId="51" priority="22" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:K46">
-    <cfRule type="cellIs" dxfId="50" priority="21" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:K46">
-    <cfRule type="cellIs" dxfId="49" priority="20" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:K46">
-    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="17" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="18" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:L16">
-    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="14" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:L16">
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:L16">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:L16">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:L16">
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:L16">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:L16">
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
-      <formula>99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:L16">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
-      <formula>14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Star Regein/Star Regein/SunLeo.xlsx
+++ b/Star Regein/Star Regein/SunLeo.xlsx
@@ -1716,7 +1716,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -8887,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>

--- a/Star Regein/Star Regein/SunLeo.xlsx
+++ b/Star Regein/Star Regein/SunLeo.xlsx
@@ -1716,7 +1716,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="1">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="AN28" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="1">
         <v>0</v>
@@ -6148,13 +6148,13 @@
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
       </c>
       <c r="F30" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>5</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S32" s="1">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T33" s="1">
         <v>0</v>

--- a/Star Regein/Star Regein/SunLeo.xlsx
+++ b/Star Regein/Star Regein/SunLeo.xlsx
@@ -1715,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7522,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
